--- a/results/spsa.xlsx
+++ b/results/spsa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009443EB-2E5B-4BF5-A68B-0CFEAE1E94A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0AF3C-0C6E-498D-B6FE-59CCA5AB5AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E10"/>
+      <selection activeCell="A11" sqref="A11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,6 +530,91 @@
         <v>4.871372329753583E-2</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>362.49408069532541</v>
+      </c>
+      <c r="B11">
+        <v>982.25349150375428</v>
+      </c>
+      <c r="C11">
+        <v>747.09090909090912</v>
+      </c>
+      <c r="D11">
+        <v>0.64999614964059782</v>
+      </c>
+      <c r="E11">
+        <v>4.2348163130307648E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>387.01961484059512</v>
+      </c>
+      <c r="B12">
+        <v>1047.602931186366</v>
+      </c>
+      <c r="C12">
+        <v>741.01411764705881</v>
+      </c>
+      <c r="D12">
+        <v>0.65935286295922912</v>
+      </c>
+      <c r="E12">
+        <v>4.356015802914448E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>455.19797574031242</v>
+      </c>
+      <c r="B13">
+        <v>988.37925661610666</v>
+      </c>
+      <c r="C13">
+        <v>922.20975609756101</v>
+      </c>
+      <c r="D13">
+        <v>0.67572788170775133</v>
+      </c>
+      <c r="E13">
+        <v>3.6920805859663189E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>267.60685094037132</v>
+      </c>
+      <c r="B14">
+        <v>893.08422027534755</v>
+      </c>
+      <c r="C14">
+        <v>1009.4656862745099</v>
+      </c>
+      <c r="D14">
+        <v>0.65632181371169462</v>
+      </c>
+      <c r="E14">
+        <v>4.6418782654576572E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>324.93827013865291</v>
+      </c>
+      <c r="B15">
+        <v>876.89066085583886</v>
+      </c>
+      <c r="C15">
+        <v>990.8955223880597</v>
+      </c>
+      <c r="D15">
+        <v>0.67105030547636946</v>
+      </c>
+      <c r="E15">
+        <v>3.6705743902796399E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -537,10 +622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FAB44D-C29F-4C9F-9C5B-98E50491260C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E10"/>
+      <selection activeCell="A11" sqref="A11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,6 +800,91 @@
         <v>4.5061397631385808E-2</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>354.35551311645548</v>
+      </c>
+      <c r="B11">
+        <v>783.95135027397043</v>
+      </c>
+      <c r="C11">
+        <v>752.60859188544157</v>
+      </c>
+      <c r="D11">
+        <v>0.66121992786538153</v>
+      </c>
+      <c r="E11">
+        <v>4.2993684436889487E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>470.17440011937998</v>
+      </c>
+      <c r="B12">
+        <v>946.12217058576596</v>
+      </c>
+      <c r="C12">
+        <v>751.34976525821594</v>
+      </c>
+      <c r="D12">
+        <v>0.65091663643072262</v>
+      </c>
+      <c r="E12">
+        <v>4.9150975505081518E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>466.19608771451618</v>
+      </c>
+      <c r="B13">
+        <v>848.06265227809831</v>
+      </c>
+      <c r="C13">
+        <v>906.05596107055965</v>
+      </c>
+      <c r="D13">
+        <v>0.68132767907036795</v>
+      </c>
+      <c r="E13">
+        <v>4.5225953949086628E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>503.87379343447128</v>
+      </c>
+      <c r="B14">
+        <v>908.35070910941818</v>
+      </c>
+      <c r="C14">
+        <v>988.84520884520884</v>
+      </c>
+      <c r="D14">
+        <v>0.66305223871133379</v>
+      </c>
+      <c r="E14">
+        <v>4.9481469403324527E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>471.3617734672589</v>
+      </c>
+      <c r="B15">
+        <v>833.90147861680248</v>
+      </c>
+      <c r="C15">
+        <v>956.61194029850742</v>
+      </c>
+      <c r="D15">
+        <v>0.69000544362562743</v>
+      </c>
+      <c r="E15">
+        <v>4.2744599472134402E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -722,10 +892,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE8EE0-1DE8-4721-B5A7-7B3DA0B522E1}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E10"/>
+      <selection activeCell="A11" sqref="A11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,6 +1070,91 @@
         <v>3.488716815553837E-2</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>470.28081650511717</v>
+      </c>
+      <c r="B11">
+        <v>1066.6312782807749</v>
+      </c>
+      <c r="C11">
+        <v>752.0930787589499</v>
+      </c>
+      <c r="D11">
+        <v>0.66027103772953755</v>
+      </c>
+      <c r="E11">
+        <v>3.8579912360116833E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>424.16909384265568</v>
+      </c>
+      <c r="B12">
+        <v>1017.847653938828</v>
+      </c>
+      <c r="C12">
+        <v>759.54800936768152</v>
+      </c>
+      <c r="D12">
+        <v>0.64400664153714415</v>
+      </c>
+      <c r="E12">
+        <v>5.1563989738648591E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>447.46769213275661</v>
+      </c>
+      <c r="B13">
+        <v>1023.594123873359</v>
+      </c>
+      <c r="C13">
+        <v>945.37712895377126</v>
+      </c>
+      <c r="D13">
+        <v>0.62934816833663298</v>
+      </c>
+      <c r="E13">
+        <v>5.1993225999567683E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>446.80513690740491</v>
+      </c>
+      <c r="B14">
+        <v>996.85567185527623</v>
+      </c>
+      <c r="C14">
+        <v>1012.3970588235291</v>
+      </c>
+      <c r="D14">
+        <v>0.65973710049207446</v>
+      </c>
+      <c r="E14">
+        <v>4.0862473750451427E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>324.62699388364769</v>
+      </c>
+      <c r="B15">
+        <v>866.16634887208852</v>
+      </c>
+      <c r="C15">
+        <v>990.8955223880597</v>
+      </c>
+      <c r="D15">
+        <v>0.67105030547636946</v>
+      </c>
+      <c r="E15">
+        <v>3.6346413136111901E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -907,6 +1162,276 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4FB0E1-FDF5-4ABE-86AF-4CABCE14E9FA}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>345.6756448938479</v>
+      </c>
+      <c r="B1">
+        <v>746.5834218001329</v>
+      </c>
+      <c r="C1">
+        <v>887.70343137254906</v>
+      </c>
+      <c r="D1">
+        <v>0.68308827397221639</v>
+      </c>
+      <c r="E1">
+        <v>2.9143757192638911E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>389.31225969780979</v>
+      </c>
+      <c r="B2">
+        <v>847.26492103688418</v>
+      </c>
+      <c r="C2">
+        <v>908.80604534005033</v>
+      </c>
+      <c r="D2">
+        <v>0.66594102146256906</v>
+      </c>
+      <c r="E2">
+        <v>5.2072360602846098E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>405.24538396026958</v>
+      </c>
+      <c r="B3">
+        <v>817.76129396757381</v>
+      </c>
+      <c r="C3">
+        <v>798.17539863325737</v>
+      </c>
+      <c r="D3">
+        <v>0.67431880064786276</v>
+      </c>
+      <c r="E3">
+        <v>4.3056313930646593E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>363.30437103351062</v>
+      </c>
+      <c r="B4">
+        <v>806.53846198777842</v>
+      </c>
+      <c r="C4">
+        <v>988.09113924050632</v>
+      </c>
+      <c r="D4">
+        <v>0.6521815480383294</v>
+      </c>
+      <c r="E4">
+        <v>3.8569850190513587E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>304.11264189937077</v>
+      </c>
+      <c r="B5">
+        <v>697.11447565393564</v>
+      </c>
+      <c r="C5">
+        <v>739.57142857142856</v>
+      </c>
+      <c r="D5">
+        <v>0.65505786249042375</v>
+      </c>
+      <c r="E5">
+        <v>4.5109103476560303E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>408.36219637208478</v>
+      </c>
+      <c r="B6">
+        <v>819.41849957452632</v>
+      </c>
+      <c r="C6">
+        <v>961.52969121140143</v>
+      </c>
+      <c r="D6">
+        <v>0.67464944088096279</v>
+      </c>
+      <c r="E6">
+        <v>3.9428378309744369E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>438.22955784240918</v>
+      </c>
+      <c r="B7">
+        <v>800.79780177117482</v>
+      </c>
+      <c r="C7">
+        <v>994.2408759124088</v>
+      </c>
+      <c r="D7">
+        <v>0.67040304380789473</v>
+      </c>
+      <c r="E7">
+        <v>4.9696175906319542E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>407.03726310603469</v>
+      </c>
+      <c r="B8">
+        <v>841.60017785846196</v>
+      </c>
+      <c r="C8">
+        <v>866.1649746192893</v>
+      </c>
+      <c r="D8">
+        <v>0.68600229608588525</v>
+      </c>
+      <c r="E8">
+        <v>4.5863511609855287E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>399.32758720859749</v>
+      </c>
+      <c r="B9">
+        <v>805.5550101989204</v>
+      </c>
+      <c r="C9">
+        <v>862.76499999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.65380480223088722</v>
+      </c>
+      <c r="E9">
+        <v>4.7968028108458578E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>275.09673853554239</v>
+      </c>
+      <c r="B10">
+        <v>669.57051524210658</v>
+      </c>
+      <c r="C10">
+        <v>983.75972540045768</v>
+      </c>
+      <c r="D10">
+        <v>0.66371486903285182</v>
+      </c>
+      <c r="E10">
+        <v>4.0452537955631189E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>374.14046696532859</v>
+      </c>
+      <c r="B11">
+        <v>827.1981340262671</v>
+      </c>
+      <c r="C11">
+        <v>732.6875</v>
+      </c>
+      <c r="D11">
+        <v>0.66610808507756447</v>
+      </c>
+      <c r="E11">
+        <v>4.3161639967070009E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>558.7268636902611</v>
+      </c>
+      <c r="B12">
+        <v>970.19359720374428</v>
+      </c>
+      <c r="C12">
+        <v>723.23529411764707</v>
+      </c>
+      <c r="D12">
+        <v>0.69479825838870735</v>
+      </c>
+      <c r="E12">
+        <v>4.8024848001263623E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>367.38401811787912</v>
+      </c>
+      <c r="B13">
+        <v>870.33418140990159</v>
+      </c>
+      <c r="C13">
+        <v>937.61557177615566</v>
+      </c>
+      <c r="D13">
+        <v>0.64018714024149648</v>
+      </c>
+      <c r="E13">
+        <v>4.2833236370650639E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>419.75293576427578</v>
+      </c>
+      <c r="B14">
+        <v>823.73185020161952</v>
+      </c>
+      <c r="C14">
+        <v>997.89460784313724</v>
+      </c>
+      <c r="D14">
+        <v>0.67613253169517984</v>
+      </c>
+      <c r="E14">
+        <v>4.5065084093325949E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>232.6080243555439</v>
+      </c>
+      <c r="B15">
+        <v>591.08429604093328</v>
+      </c>
+      <c r="C15">
+        <v>969.53349875930519</v>
+      </c>
+      <c r="D15">
+        <v>0.68188127192253523</v>
+      </c>
+      <c r="E15">
+        <v>3.1033854128600689E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B268EE2E-DACF-49C5-A124-6B0C84B27DC1}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -917,276 +1442,6 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>345.6756448938479</v>
-      </c>
-      <c r="B1">
-        <v>746.5834218001329</v>
-      </c>
-      <c r="C1">
-        <v>887.70343137254906</v>
-      </c>
-      <c r="D1">
-        <v>0.68308827397221639</v>
-      </c>
-      <c r="E1">
-        <v>2.9143757192638911E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>389.31225969780979</v>
-      </c>
-      <c r="B2">
-        <v>847.26492103688418</v>
-      </c>
-      <c r="C2">
-        <v>908.80604534005033</v>
-      </c>
-      <c r="D2">
-        <v>0.66594102146256906</v>
-      </c>
-      <c r="E2">
-        <v>5.2072360602846098E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>405.24538396026958</v>
-      </c>
-      <c r="B3">
-        <v>817.76129396757381</v>
-      </c>
-      <c r="C3">
-        <v>798.17539863325737</v>
-      </c>
-      <c r="D3">
-        <v>0.67431880064786276</v>
-      </c>
-      <c r="E3">
-        <v>4.3056313930646593E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>363.30437103351062</v>
-      </c>
-      <c r="B4">
-        <v>806.53846198777842</v>
-      </c>
-      <c r="C4">
-        <v>988.09113924050632</v>
-      </c>
-      <c r="D4">
-        <v>0.6521815480383294</v>
-      </c>
-      <c r="E4">
-        <v>3.8569850190513587E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>304.11264189937077</v>
-      </c>
-      <c r="B5">
-        <v>697.11447565393564</v>
-      </c>
-      <c r="C5">
-        <v>739.57142857142856</v>
-      </c>
-      <c r="D5">
-        <v>0.65505786249042375</v>
-      </c>
-      <c r="E5">
-        <v>4.5109103476560303E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>408.36219637208478</v>
-      </c>
-      <c r="B6">
-        <v>819.41849957452632</v>
-      </c>
-      <c r="C6">
-        <v>961.52969121140143</v>
-      </c>
-      <c r="D6">
-        <v>0.67464944088096279</v>
-      </c>
-      <c r="E6">
-        <v>3.9428378309744369E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>438.22955784240918</v>
-      </c>
-      <c r="B7">
-        <v>800.79780177117482</v>
-      </c>
-      <c r="C7">
-        <v>994.2408759124088</v>
-      </c>
-      <c r="D7">
-        <v>0.67040304380789473</v>
-      </c>
-      <c r="E7">
-        <v>4.9696175906319542E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>407.03726310603469</v>
-      </c>
-      <c r="B8">
-        <v>841.60017785846196</v>
-      </c>
-      <c r="C8">
-        <v>866.1649746192893</v>
-      </c>
-      <c r="D8">
-        <v>0.68600229608588525</v>
-      </c>
-      <c r="E8">
-        <v>4.5863511609855287E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>399.32758720859749</v>
-      </c>
-      <c r="B9">
-        <v>805.5550101989204</v>
-      </c>
-      <c r="C9">
-        <v>862.76499999999999</v>
-      </c>
-      <c r="D9">
-        <v>0.65380480223088722</v>
-      </c>
-      <c r="E9">
-        <v>4.7968028108458578E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>275.09673853554239</v>
-      </c>
-      <c r="B10">
-        <v>669.57051524210658</v>
-      </c>
-      <c r="C10">
-        <v>983.75972540045768</v>
-      </c>
-      <c r="D10">
-        <v>0.66371486903285182</v>
-      </c>
-      <c r="E10">
-        <v>4.0452537955631189E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>483.93093074313248</v>
-      </c>
-      <c r="B11">
-        <v>1217.4399569924251</v>
-      </c>
-      <c r="C11">
-        <v>950.08571428571429</v>
-      </c>
-      <c r="D11">
-        <v>0.68409719269522562</v>
-      </c>
-      <c r="E11">
-        <v>4.5669121058384783E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>540.03604334042711</v>
-      </c>
-      <c r="B12">
-        <v>1187.738235138818</v>
-      </c>
-      <c r="C12">
-        <v>977.58394160583941</v>
-      </c>
-      <c r="D12">
-        <v>0.67476654322320895</v>
-      </c>
-      <c r="E12">
-        <v>3.6442226948690308E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>343.5401583437976</v>
-      </c>
-      <c r="B13">
-        <v>966.52962524876659</v>
-      </c>
-      <c r="C13">
-        <v>858.19543147208117</v>
-      </c>
-      <c r="D13">
-        <v>0.6392123794818112</v>
-      </c>
-      <c r="E13">
-        <v>4.7973183142194939E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>331.13330014813499</v>
-      </c>
-      <c r="B14">
-        <v>937.55652435166576</v>
-      </c>
-      <c r="C14">
-        <v>880.93765586034908</v>
-      </c>
-      <c r="D14">
-        <v>0.62226483112898612</v>
-      </c>
-      <c r="E14">
-        <v>4.7019743327332102E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>415.05860315282962</v>
-      </c>
-      <c r="B15">
-        <v>1020.384264997443</v>
-      </c>
-      <c r="C15">
-        <v>964.34553775743711</v>
-      </c>
-      <c r="D15">
-        <v>0.66968081917517053</v>
-      </c>
-      <c r="E15">
-        <v>4.2531280221757548E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B268EE2E-DACF-49C5-A124-6B0C84B27DC1}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
         <v>385.69682677761631</v>
       </c>
       <c r="B1">
@@ -1270,26 +1525,174 @@
         <v>4.7219586343238189E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>483.93093074313248</v>
+      </c>
+      <c r="B6">
+        <v>1217.4399569924251</v>
+      </c>
+      <c r="C6">
+        <v>950.08571428571429</v>
+      </c>
+      <c r="D6">
+        <v>0.68409719269522562</v>
+      </c>
+      <c r="E6">
+        <v>4.5669121058384783E-2</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>AVERAGE(A1:A5)</f>
-        <v>341.39758487455373</v>
+        <v>540.03604334042711</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:E7" si="0">AVERAGE(B1:B5)</f>
-        <v>988.49282906906592</v>
+        <v>1187.738235138818</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>859.23997682278912</v>
+        <v>977.58394160583941</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.66687664579118278</v>
+        <v>0.67476654322320895</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>3.9870162937404093E-2</v>
+        <v>3.6442226948690308E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>343.5401583437976</v>
+      </c>
+      <c r="B8">
+        <v>966.52962524876659</v>
+      </c>
+      <c r="C8">
+        <v>858.19543147208117</v>
+      </c>
+      <c r="D8">
+        <v>0.6392123794818112</v>
+      </c>
+      <c r="E8">
+        <v>4.7973183142194939E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>331.13330014813499</v>
+      </c>
+      <c r="B9">
+        <v>937.55652435166576</v>
+      </c>
+      <c r="C9">
+        <v>880.93765586034908</v>
+      </c>
+      <c r="D9">
+        <v>0.62226483112898612</v>
+      </c>
+      <c r="E9">
+        <v>4.7019743327332102E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>415.05860315282962</v>
+      </c>
+      <c r="B10">
+        <v>1020.384264997443</v>
+      </c>
+      <c r="C10">
+        <v>964.34553775743711</v>
+      </c>
+      <c r="D10">
+        <v>0.66968081917517053</v>
+      </c>
+      <c r="E10">
+        <v>4.2531280221757548E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>301.1602688851882</v>
+      </c>
+      <c r="B11">
+        <v>947.80092898849887</v>
+      </c>
+      <c r="C11">
+        <v>739.2757793764988</v>
+      </c>
+      <c r="D11">
+        <v>0.66341750358684248</v>
+      </c>
+      <c r="E11">
+        <v>4.7205896647896713E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>336.63391625770589</v>
+      </c>
+      <c r="B12">
+        <v>928.37450881674272</v>
+      </c>
+      <c r="C12">
+        <v>766.35211267605632</v>
+      </c>
+      <c r="D12">
+        <v>0.64244423153394137</v>
+      </c>
+      <c r="E12">
+        <v>4.6910164942282069E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>225.26746875191751</v>
+      </c>
+      <c r="B13">
+        <v>849.15255184271496</v>
+      </c>
+      <c r="C13">
+        <v>921.42233009708741</v>
+      </c>
+      <c r="D13">
+        <v>0.67204592507399141</v>
+      </c>
+      <c r="E13">
+        <v>4.3612030297256167E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>382.1658557598135</v>
+      </c>
+      <c r="B14">
+        <v>1055.392894912173</v>
+      </c>
+      <c r="C14">
+        <v>1011.899509803922</v>
+      </c>
+      <c r="D14">
+        <v>0.6377215889846054</v>
+      </c>
+      <c r="E14">
+        <v>4.3555153852499813E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>390.89400640026679</v>
+      </c>
+      <c r="B15">
+        <v>1071.6808056178561</v>
+      </c>
+      <c r="C15">
+        <v>963.65920398009951</v>
+      </c>
+      <c r="D15">
+        <v>0.6608007904834895</v>
+      </c>
+      <c r="E15">
+        <v>4.0314151675454803E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/spsa.xlsx
+++ b/results/spsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0AF3C-0C6E-498D-B6FE-59CCA5AB5AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3DEF3-A856-4C8A-A768-8A4730F08CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,15 +352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E15"/>
+      <selection activeCell="A16" sqref="A16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>329.55515457091423</v>
       </c>
@@ -376,8 +376,28 @@
       <c r="E1">
         <v>3.7049170816272618E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>403.88665680921554</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>988.52197653277665</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>886.11785236938124</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.66246797064836505</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>4.2971093899582334E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>636.37577236662287</v>
       </c>
@@ -394,7 +414,7 @@
         <v>5.2074348408187122E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>205.2685348492208</v>
       </c>
@@ -411,7 +431,7 @@
         <v>4.7732722070344687E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>374.12820955433529</v>
       </c>
@@ -428,7 +448,7 @@
         <v>4.154110288837206E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>491.48697935811401</v>
       </c>
@@ -445,7 +465,7 @@
         <v>4.83148272186728E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>548.57308937671451</v>
       </c>
@@ -462,7 +482,7 @@
         <v>3.1170847436712699E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>369.32420494178342</v>
       </c>
@@ -479,7 +499,7 @@
         <v>4.5212524085738691E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>495.66256040751841</v>
       </c>
@@ -496,7 +516,7 @@
         <v>4.3170881477647589E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>393.97594721405488</v>
       </c>
@@ -513,7 +533,7 @@
         <v>4.3632607217762721E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>416.69260714369761</v>
       </c>
@@ -530,7 +550,7 @@
         <v>4.871372329753583E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>362.49408069532541</v>
       </c>
@@ -547,7 +567,7 @@
         <v>4.2348163130307648E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>387.01961484059512</v>
       </c>
@@ -564,7 +584,7 @@
         <v>4.356015802914448E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>455.19797574031242</v>
       </c>
@@ -581,7 +601,7 @@
         <v>3.6920805859663189E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>267.60685094037132</v>
       </c>
@@ -598,7 +618,7 @@
         <v>4.6418782654576572E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324.93827013865291</v>
       </c>
@@ -613,6 +633,91 @@
       </c>
       <c r="E15">
         <v>3.6705743902796399E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>516.00194481741369</v>
+      </c>
+      <c r="B16">
+        <v>1088.664755781793</v>
+      </c>
+      <c r="C16">
+        <v>1014.25304136253</v>
+      </c>
+      <c r="D16">
+        <v>0.63095580592204958</v>
+      </c>
+      <c r="E16">
+        <v>4.0214100722137137E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>561.84725702035132</v>
+      </c>
+      <c r="B17">
+        <v>1151.388692055041</v>
+      </c>
+      <c r="C17">
+        <v>924.53379953379954</v>
+      </c>
+      <c r="D17">
+        <v>0.60746793871981308</v>
+      </c>
+      <c r="E17">
+        <v>4.395497766189977E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>402.2448940031511</v>
+      </c>
+      <c r="B18">
+        <v>959.09994828703486</v>
+      </c>
+      <c r="C18">
+        <v>787.71933962264154</v>
+      </c>
+      <c r="D18">
+        <v>0.68889223965221613</v>
+      </c>
+      <c r="E18">
+        <v>4.3968268288580241E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>524.36391505307506</v>
+      </c>
+      <c r="B19">
+        <v>1116.2617238547739</v>
+      </c>
+      <c r="C19">
+        <v>869.83902439024394</v>
+      </c>
+      <c r="D19">
+        <v>0.67875858164100389</v>
+      </c>
+      <c r="E19">
+        <v>4.1117219015697377E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>535.65820930944005</v>
+      </c>
+      <c r="B20">
+        <v>1059.9336063115361</v>
+      </c>
+      <c r="C20">
+        <v>899.81796690307328</v>
+      </c>
+      <c r="D20">
+        <v>0.65009587422723203</v>
+      </c>
+      <c r="E20">
+        <v>4.3179331315625583E-2</v>
       </c>
     </row>
   </sheetData>
@@ -622,15 +727,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FAB44D-C29F-4C9F-9C5B-98E50491260C}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E15"/>
+      <selection activeCell="A16" sqref="A16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>477.477268087006</v>
       </c>
@@ -646,8 +751,28 @@
       <c r="E1">
         <v>4.045970477970752E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>449.26725785413475</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>874.56381491190177</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>877.61764267236765</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.66813800858030947</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>4.5451774907464944E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>508.85117823563968</v>
       </c>
@@ -664,7 +789,7 @@
         <v>5.7440319374376887E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>453.58858495796278</v>
       </c>
@@ -681,7 +806,7 @@
         <v>4.9369558021736509E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>484.55118343884959</v>
       </c>
@@ -698,7 +823,7 @@
         <v>4.1149444608796673E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>429.36103558229951</v>
       </c>
@@ -715,7 +840,7 @@
         <v>4.6026117299262433E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>322.86968298007798</v>
       </c>
@@ -732,7 +857,7 @@
         <v>3.9528449463084217E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>454.56576678048299</v>
       </c>
@@ -749,7 +874,7 @@
         <v>4.9593403782592027E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>522.06524355895067</v>
       </c>
@@ -766,7 +891,7 @@
         <v>3.5045753714844932E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>306.050991054831</v>
       </c>
@@ -783,7 +908,7 @@
         <v>4.8505792169670547E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>513.66636528383765</v>
       </c>
@@ -800,7 +925,7 @@
         <v>4.5061397631385808E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>354.35551311645548</v>
       </c>
@@ -817,7 +942,7 @@
         <v>4.2993684436889487E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>470.17440011937998</v>
       </c>
@@ -834,7 +959,7 @@
         <v>4.9150975505081518E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>466.19608771451618</v>
       </c>
@@ -851,7 +976,7 @@
         <v>4.5225953949086628E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>503.87379343447128</v>
       </c>
@@ -868,7 +993,7 @@
         <v>4.9481469403324527E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>471.3617734672589</v>
       </c>
@@ -883,6 +1008,91 @@
       </c>
       <c r="E15">
         <v>4.2744599472134402E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>387.17392187827829</v>
+      </c>
+      <c r="B16">
+        <v>855.85668607132641</v>
+      </c>
+      <c r="C16">
+        <v>1006.41564792176</v>
+      </c>
+      <c r="D16">
+        <v>0.63877499392579162</v>
+      </c>
+      <c r="E16">
+        <v>5.4174742344973083E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>426.76326531354982</v>
+      </c>
+      <c r="B17">
+        <v>833.38692983610247</v>
+      </c>
+      <c r="C17">
+        <v>855.80652680652679</v>
+      </c>
+      <c r="D17">
+        <v>0.68347299059229527</v>
+      </c>
+      <c r="E17">
+        <v>4.5430775635552319E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>357.07641834191247</v>
+      </c>
+      <c r="B18">
+        <v>793.23396036445638</v>
+      </c>
+      <c r="C18">
+        <v>780.42452830188677</v>
+      </c>
+      <c r="D18">
+        <v>0.70531504608824958</v>
+      </c>
+      <c r="E18">
+        <v>3.9005760141796457E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>395.87473277307959</v>
+      </c>
+      <c r="B19">
+        <v>774.34033598558437</v>
+      </c>
+      <c r="C19">
+        <v>880.35365853658539</v>
+      </c>
+      <c r="D19">
+        <v>0.67922233716094582</v>
+      </c>
+      <c r="E19">
+        <v>4.4607051928961472E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>518.2916063166108</v>
+      </c>
+      <c r="B20">
+        <v>863.01270379309938</v>
+      </c>
+      <c r="C20">
+        <v>895.85545023696682</v>
+      </c>
+      <c r="D20">
+        <v>0.64123049499879659</v>
+      </c>
+      <c r="E20">
+        <v>4.3200305815048502E-2</v>
       </c>
     </row>
   </sheetData>
@@ -892,15 +1102,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE8EE0-1DE8-4721-B5A7-7B3DA0B522E1}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E15"/>
+      <selection activeCell="A16" sqref="A16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>396.67010394912018</v>
       </c>
@@ -916,8 +1126,28 @@
       <c r="E1">
         <v>4.0511604240245733E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>422.17102646258064</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>1013.9882605159048</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>892.22361485683837</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.65944480897993685</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>4.3638036000238169E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>523.19910919562813</v>
       </c>
@@ -934,7 +1164,7 @@
         <v>4.4117694120445847E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>401.85931383680429</v>
       </c>
@@ -951,7 +1181,7 @@
         <v>4.4808952637309767E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>374.06024506843403</v>
       </c>
@@ -968,7 +1198,7 @@
         <v>4.154110288837206E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>322.38139910012382</v>
       </c>
@@ -985,7 +1215,7 @@
         <v>4.5340965641155452E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>513.59857341985526</v>
       </c>
@@ -1002,7 +1232,7 @@
         <v>4.6273135923413422E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>331.57174953891729</v>
       </c>
@@ -1019,7 +1249,7 @@
         <v>4.826212781334166E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>464.13122259430372</v>
       </c>
@@ -1036,7 +1266,7 @@
         <v>4.5391448260821317E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>378.79250990651769</v>
       </c>
@@ -1053,7 +1283,7 @@
         <v>4.4090325338032518E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>512.95143705742385</v>
       </c>
@@ -1070,7 +1300,7 @@
         <v>3.488716815553837E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>470.28081650511717</v>
       </c>
@@ -1087,7 +1317,7 @@
         <v>3.8579912360116833E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>424.16909384265568</v>
       </c>
@@ -1104,7 +1334,7 @@
         <v>5.1563989738648591E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>447.46769213275661</v>
       </c>
@@ -1121,7 +1351,7 @@
         <v>5.1993225999567683E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>446.80513690740491</v>
       </c>
@@ -1138,7 +1368,7 @@
         <v>4.0862473750451427E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324.62699388364769</v>
       </c>
@@ -1153,6 +1383,91 @@
       </c>
       <c r="E15">
         <v>3.6346413136111901E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>288.11432031772642</v>
+      </c>
+      <c r="B16">
+        <v>756.9348237488432</v>
+      </c>
+      <c r="C16">
+        <v>1010.853658536585</v>
+      </c>
+      <c r="D16">
+        <v>0.63224774580312948</v>
+      </c>
+      <c r="E16">
+        <v>4.8991103612090837E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>290.9366729527261</v>
+      </c>
+      <c r="B17">
+        <v>870.82093257488395</v>
+      </c>
+      <c r="C17">
+        <v>891.90909090909088</v>
+      </c>
+      <c r="D17">
+        <v>0.6499248730793904</v>
+      </c>
+      <c r="E17">
+        <v>4.8091963121339523E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>512.27638023519808</v>
+      </c>
+      <c r="B18">
+        <v>1026.716628902916</v>
+      </c>
+      <c r="C18">
+        <v>775.37735849056605</v>
+      </c>
+      <c r="D18">
+        <v>0.68030941207523399</v>
+      </c>
+      <c r="E18">
+        <v>4.4334910769263922E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>468.0610095660432</v>
+      </c>
+      <c r="B19">
+        <v>1059.1305220227191</v>
+      </c>
+      <c r="C19">
+        <v>919.85401459854018</v>
+      </c>
+      <c r="D19">
+        <v>0.62704322394595946</v>
+      </c>
+      <c r="E19">
+        <v>3.9927337590378163E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>482.23529239710831</v>
+      </c>
+      <c r="B20">
+        <v>1124.5423191644029</v>
+      </c>
+      <c r="C20">
+        <v>896.77882352941174</v>
+      </c>
+      <c r="D20">
+        <v>0.66003928811860324</v>
+      </c>
+      <c r="E20">
+        <v>4.099376242349749E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1162,15 +1477,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4FB0E1-FDF5-4ABE-86AF-4CABCE14E9FA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E15"/>
+      <selection activeCell="A16" sqref="A16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>345.6756448938479</v>
       </c>
@@ -1186,8 +1501,28 @@
       <c r="E1">
         <v>2.9143757192638911E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>379.22106356285104</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>795.6497758649308</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>890.11827885317302</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.66921794973169091</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>4.2765245322941695E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>389.31225969780979</v>
       </c>
@@ -1204,7 +1539,7 @@
         <v>5.2072360602846098E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>405.24538396026958</v>
       </c>
@@ -1221,7 +1556,7 @@
         <v>4.3056313930646593E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>363.30437103351062</v>
       </c>
@@ -1238,7 +1573,7 @@
         <v>3.8569850190513587E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>304.11264189937077</v>
       </c>
@@ -1255,7 +1590,7 @@
         <v>4.5109103476560303E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>408.36219637208478</v>
       </c>
@@ -1272,7 +1607,7 @@
         <v>3.9428378309744369E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>438.22955784240918</v>
       </c>
@@ -1289,7 +1624,7 @@
         <v>4.9696175906319542E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>407.03726310603469</v>
       </c>
@@ -1306,7 +1641,7 @@
         <v>4.5863511609855287E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>399.32758720859749</v>
       </c>
@@ -1323,7 +1658,7 @@
         <v>4.7968028108458578E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>275.09673853554239</v>
       </c>
@@ -1340,7 +1675,7 @@
         <v>4.0452537955631189E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>374.14046696532859</v>
       </c>
@@ -1357,7 +1692,7 @@
         <v>4.3161639967070009E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>558.7268636902611</v>
       </c>
@@ -1374,7 +1709,7 @@
         <v>4.8024848001263623E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>367.38401811787912</v>
       </c>
@@ -1391,7 +1726,7 @@
         <v>4.2833236370650639E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>419.75293576427578</v>
       </c>
@@ -1408,7 +1743,7 @@
         <v>4.5065084093325949E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>232.6080243555439</v>
       </c>
@@ -1423,6 +1758,91 @@
       </c>
       <c r="E15">
         <v>3.1033854128600689E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>432.58908315840279</v>
+      </c>
+      <c r="B16">
+        <v>804.44959918728557</v>
+      </c>
+      <c r="C16">
+        <v>989.56585365853664</v>
+      </c>
+      <c r="D16">
+        <v>0.65859319374936165</v>
+      </c>
+      <c r="E16">
+        <v>3.7147595517656083E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>610.26806420393939</v>
+      </c>
+      <c r="B17">
+        <v>988.8108834528274</v>
+      </c>
+      <c r="C17">
+        <v>872.69320843091339</v>
+      </c>
+      <c r="D17">
+        <v>0.67598251238686802</v>
+      </c>
+      <c r="E17">
+        <v>4.0634821618175283E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>356.97533288000272</v>
+      </c>
+      <c r="B18">
+        <v>719.35742684461491</v>
+      </c>
+      <c r="C18">
+        <v>781.28</v>
+      </c>
+      <c r="D18">
+        <v>0.69816556316144041</v>
+      </c>
+      <c r="E18">
+        <v>3.9101674639452438E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>436.23701826001241</v>
+      </c>
+      <c r="B19">
+        <v>828.7624130337399</v>
+      </c>
+      <c r="C19">
+        <v>864.2384428223844</v>
+      </c>
+      <c r="D19">
+        <v>0.67213128077680429</v>
+      </c>
+      <c r="E19">
+        <v>5.3525537491046958E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>377.3669827128648</v>
+      </c>
+      <c r="B20">
+        <v>774.17198530292842</v>
+      </c>
+      <c r="C20">
+        <v>914.10117647058826</v>
+      </c>
+      <c r="D20">
+        <v>0.63751671742607341</v>
+      </c>
+      <c r="E20">
+        <v>4.1436329915927078E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1432,15 +1852,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B268EE2E-DACF-49C5-A124-6B0C84B27DC1}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E15"/>
+      <selection activeCell="A16" sqref="A16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>385.69682677761631</v>
       </c>
@@ -1456,8 +1876,28 @@
       <c r="E1">
         <v>3.2254613754352623E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>363.78723174373215</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>1008.300962816829</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>888.66380673526885</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.6600556689548791</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>4.2705584453384654E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>170.4445456041077</v>
       </c>
@@ -1474,7 +1914,7 @@
         <v>4.2605901800991781E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>462.59072812955287</v>
       </c>
@@ -1491,7 +1931,7 @@
         <v>4.0629962760348512E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>389.1605986667231</v>
       </c>
@@ -1508,7 +1948,7 @@
         <v>3.6640750028089357E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>299.09522519476872</v>
       </c>
@@ -1525,7 +1965,7 @@
         <v>4.7219586343238189E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>483.93093074313248</v>
       </c>
@@ -1542,7 +1982,7 @@
         <v>4.5669121058384783E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>540.03604334042711</v>
       </c>
@@ -1559,7 +1999,7 @@
         <v>3.6442226948690308E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>343.5401583437976</v>
       </c>
@@ -1576,7 +2016,7 @@
         <v>4.7973183142194939E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>331.13330014813499</v>
       </c>
@@ -1593,7 +2033,7 @@
         <v>4.7019743327332102E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>415.05860315282962</v>
       </c>
@@ -1610,7 +2050,7 @@
         <v>4.2531280221757548E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>301.1602688851882</v>
       </c>
@@ -1627,7 +2067,7 @@
         <v>4.7205896647896713E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>336.63391625770589</v>
       </c>
@@ -1644,7 +2084,7 @@
         <v>4.6910164942282069E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>225.26746875191751</v>
       </c>
@@ -1661,7 +2101,7 @@
         <v>4.3612030297256167E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>382.1658557598135</v>
       </c>
@@ -1678,7 +2118,7 @@
         <v>4.3555153852499813E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>390.89400640026679</v>
       </c>
@@ -1693,6 +2133,91 @@
       </c>
       <c r="E15">
         <v>4.0314151675454803E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>392.65202180515217</v>
+      </c>
+      <c r="B16">
+        <v>1089.2790517266931</v>
+      </c>
+      <c r="C16">
+        <v>1008.510948905109</v>
+      </c>
+      <c r="D16">
+        <v>0.6624922364937994</v>
+      </c>
+      <c r="E16">
+        <v>4.0619050797996048E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>416.23854986360459</v>
+      </c>
+      <c r="B17">
+        <v>953.25424536066089</v>
+      </c>
+      <c r="C17">
+        <v>886.61448598130846</v>
+      </c>
+      <c r="D17">
+        <v>0.68119834399396773</v>
+      </c>
+      <c r="E17">
+        <v>4.1587116399915511E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>435.1902772329945</v>
+      </c>
+      <c r="B18">
+        <v>1097.6839065998131</v>
+      </c>
+      <c r="C18">
+        <v>782.33569739952713</v>
+      </c>
+      <c r="D18">
+        <v>0.65606095114529184</v>
+      </c>
+      <c r="E18">
+        <v>5.672098111776068E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>398.02378737360152</v>
+      </c>
+      <c r="B19">
+        <v>1007.243891445989</v>
+      </c>
+      <c r="C19">
+        <v>878.51707317073169</v>
+      </c>
+      <c r="D19">
+        <v>0.6496355064323811</v>
+      </c>
+      <c r="E19">
+        <v>4.4918743841448491E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>405.63345168788419</v>
+      </c>
+      <c r="B20">
+        <v>1018.023185325195</v>
+      </c>
+      <c r="C20">
+        <v>871.58530805687201</v>
+      </c>
+      <c r="D20">
+        <v>0.65806552582000188</v>
+      </c>
+      <c r="E20">
+        <v>4.4527844596246417E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/spsa.xlsx
+++ b/results/spsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3DEF3-A856-4C8A-A768-8A4730F08CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250F75F9-5CF0-4B6C-BE49-16BA67003174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -352,372 +352,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>329.55515457091423</v>
+        <v>477.01431072514589</v>
       </c>
       <c r="B1">
-        <v>915.36460812953737</v>
+        <v>4.5757407491697842E-2</v>
       </c>
       <c r="C1">
-        <v>851.53086419753083</v>
+        <v>0.62712752771785385</v>
       </c>
       <c r="D1">
-        <v>0.70450637782497805</v>
+        <v>992.89603220192271</v>
       </c>
       <c r="E1">
-        <v>3.7049170816272618E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>403.88665680921554</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>988.52197653277665</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>886.11785236938124</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.66246797064836505</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>4.2971093899582334E-2</v>
+        <v>922.98777506112469</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>413.541443905731 ± 26.1054570512503</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0441309635154741 ± 0.00198631778669989</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.661190935653277 ± 0.00616599101311744</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>977.890602841141 ± 32.5667715602849</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>885.328933524567 ± 29.4952370564391</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>636.37577236662287</v>
+        <v>448.62251899656121</v>
       </c>
       <c r="B2">
-        <v>1366.8858584911311</v>
+        <v>3.5489920459393427E-2</v>
       </c>
       <c r="C2">
-        <v>921.36272040302265</v>
+        <v>0.67746056436279023</v>
       </c>
       <c r="D2">
-        <v>0.6428413894305316</v>
+        <v>1054.989884356798</v>
       </c>
       <c r="E2">
-        <v>5.2074348408187122E-2</v>
+        <v>883.32241813602013</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>205.2685348492208</v>
+        <v>427.45811766123461</v>
       </c>
       <c r="B3">
-        <v>779.56752821761768</v>
+        <v>4.4277511238888498E-2</v>
       </c>
       <c r="C3">
-        <v>789.76993166287014</v>
+        <v>0.6653021219073284</v>
       </c>
       <c r="D3">
-        <v>0.66365051360846528</v>
+        <v>985.66303022827799</v>
       </c>
       <c r="E3">
-        <v>4.7732722070344687E-2</v>
+        <v>772.2465753424658</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>374.12820955433529</v>
+        <v>501.83850462787638</v>
       </c>
       <c r="B4">
-        <v>946.2981350725297</v>
+        <v>4.5203841354914148E-2</v>
       </c>
       <c r="C4">
-        <v>985.48737373737379</v>
+        <v>0.66258356749203018</v>
       </c>
       <c r="D4">
-        <v>0.64644724579792023</v>
+        <v>1021.727943657462</v>
       </c>
       <c r="E4">
-        <v>4.154110288837206E-2</v>
+        <v>976.87341772151899</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>491.48697935811401</v>
+        <v>409.17324765491952</v>
       </c>
       <c r="B5">
-        <v>990.30918600706764</v>
+        <v>4.3875566215126373E-2</v>
       </c>
       <c r="C5">
-        <v>733.51522248243555</v>
+        <v>0.66279472743550738</v>
       </c>
       <c r="D5">
-        <v>0.6466439085492407</v>
+        <v>1080.0120871881211</v>
       </c>
       <c r="E5">
-        <v>4.83148272186728E-2</v>
+        <v>733.96948356807513</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>548.57308937671451</v>
+        <v>396.93839958192888</v>
       </c>
       <c r="B6">
-        <v>1072.325976587503</v>
+        <v>4.3855392985671787E-2</v>
       </c>
       <c r="C6">
-        <v>973.33729216152017</v>
+        <v>0.69540222392162443</v>
       </c>
       <c r="D6">
-        <v>0.69533666120462856</v>
+        <v>878.62460278776916</v>
       </c>
       <c r="E6">
-        <v>3.1170847436712699E-2</v>
+        <v>932.26428571428573</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>369.32420494178342</v>
+        <v>498.36906245562062</v>
       </c>
       <c r="B7">
-        <v>947.50034973777167</v>
+        <v>4.6831724686352848E-2</v>
       </c>
       <c r="C7">
-        <v>969.97560975609758</v>
+        <v>0.65213644735175313</v>
       </c>
       <c r="D7">
-        <v>0.65568707561431594</v>
+        <v>1144.228466041862</v>
       </c>
       <c r="E7">
-        <v>4.5212524085738691E-2</v>
+        <v>976.32926829268297</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>495.66256040751841</v>
+        <v>335.53646885232462</v>
       </c>
       <c r="B8">
-        <v>1106.771924410051</v>
+        <v>5.1337871960706077E-2</v>
       </c>
       <c r="C8">
-        <v>850.5634517766498</v>
+        <v>0.64766993673480788</v>
       </c>
       <c r="D8">
-        <v>0.65473551272925912</v>
+        <v>884.14542452232581</v>
       </c>
       <c r="E8">
-        <v>4.3170881477647589E-2</v>
+        <v>907.74936708860764</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>393.97594721405488</v>
+        <v>485.97475713433971</v>
       </c>
       <c r="B9">
-        <v>920.79557126279315</v>
+        <v>3.967987737203988E-2</v>
       </c>
       <c r="C9">
-        <v>842.82205513784459</v>
+        <v>0.63802611768347506</v>
       </c>
       <c r="D9">
-        <v>0.66455962296250393</v>
+        <v>1026.1205879300519</v>
       </c>
       <c r="E9">
-        <v>4.3632607217762721E-2</v>
+        <v>874.49249999999995</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>416.69260714369761</v>
+        <v>421.47030668185278</v>
       </c>
       <c r="B10">
-        <v>993.79994963823185</v>
+        <v>3.7991129327064103E-2</v>
       </c>
       <c r="C10">
-        <v>962.72727272727275</v>
+        <v>0.67679998459822199</v>
       </c>
       <c r="D10">
-        <v>0.65016223850799415</v>
+        <v>964.92864804665942</v>
       </c>
       <c r="E10">
-        <v>4.871372329753583E-2</v>
+        <v>970.39041095890411</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>362.49408069532541</v>
+        <v>377.88723621827631</v>
       </c>
       <c r="B11">
-        <v>982.25349150375428</v>
+        <v>4.6504271897593819E-2</v>
       </c>
       <c r="C11">
-        <v>747.09090909090912</v>
+        <v>0.66985398786662143</v>
       </c>
       <c r="D11">
-        <v>0.64999614964059782</v>
+        <v>1007.69529001277</v>
       </c>
       <c r="E11">
-        <v>4.2348163130307648E-2</v>
+        <v>745.46522781774581</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>387.01961484059512</v>
+        <v>389.99664390648098</v>
       </c>
       <c r="B12">
-        <v>1047.602931186366</v>
+        <v>4.5208436023112641E-2</v>
       </c>
       <c r="C12">
-        <v>741.01411764705881</v>
+        <v>0.66247751236049512</v>
       </c>
       <c r="D12">
-        <v>0.65935286295922912</v>
+        <v>902.33737072649842</v>
       </c>
       <c r="E12">
-        <v>4.356015802914448E-2</v>
+        <v>748.52816901408448</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>455.19797574031242</v>
+        <v>376.5839515635455</v>
       </c>
       <c r="B13">
-        <v>988.37925661610666</v>
+        <v>4.8615573897899549E-2</v>
       </c>
       <c r="C13">
-        <v>922.20975609756101</v>
+        <v>0.63191701673952527</v>
       </c>
       <c r="D13">
-        <v>0.67572788170775133</v>
+        <v>940.39333356270981</v>
       </c>
       <c r="E13">
-        <v>3.6920805859663189E-2</v>
+        <v>923.49633251833745</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>267.60685094037132</v>
+        <v>420.08174869139827</v>
       </c>
       <c r="B14">
-        <v>893.08422027534755</v>
+        <v>4.6785746458625037E-2</v>
       </c>
       <c r="C14">
-        <v>1009.4656862745099</v>
+        <v>0.66974591476416878</v>
       </c>
       <c r="D14">
-        <v>0.65632181371169462</v>
+        <v>960.34533116081536</v>
       </c>
       <c r="E14">
-        <v>4.6418782654576572E-2</v>
+        <v>993.69287469287474</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>324.93827013865291</v>
+        <v>405.42906308501972</v>
       </c>
       <c r="B15">
-        <v>876.89066085583886</v>
+        <v>4.3858413781781583E-2</v>
       </c>
       <c r="C15">
-        <v>990.8955223880597</v>
+        <v>0.6750688968173213</v>
       </c>
       <c r="D15">
-        <v>0.67105030547636946</v>
+        <v>903.65423516711951</v>
       </c>
       <c r="E15">
-        <v>3.6705743902796399E-2</v>
+        <v>953.92750000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>516.00194481741369</v>
+        <v>293.08086633473181</v>
       </c>
       <c r="B16">
-        <v>1088.664755781793</v>
+        <v>5.5334456388224103E-2</v>
       </c>
       <c r="C16">
-        <v>1014.25304136253</v>
+        <v>0.64905762760831909</v>
       </c>
       <c r="D16">
-        <v>0.63095580592204958</v>
+        <v>854.32270151712669</v>
       </c>
       <c r="E16">
-        <v>4.0214100722137137E-2</v>
+        <v>981.67970660146705</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>561.84725702035132</v>
+        <v>385.0391307306673</v>
       </c>
       <c r="B17">
-        <v>1151.388692055041</v>
+        <v>4.6594088874367952E-2</v>
       </c>
       <c r="C17">
-        <v>924.53379953379954</v>
+        <v>0.66331194051303777</v>
       </c>
       <c r="D17">
-        <v>0.60746793871981308</v>
+        <v>887.05804557811859</v>
       </c>
       <c r="E17">
-        <v>4.395497766189977E-2</v>
+        <v>896.88604651162791</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>402.2448940031511</v>
+        <v>491.00177579284178</v>
       </c>
       <c r="B18">
-        <v>959.09994828703486</v>
+        <v>5.2957823784182678E-2</v>
       </c>
       <c r="C18">
-        <v>787.71933962264154</v>
+        <v>0.63618758763902039</v>
       </c>
       <c r="D18">
-        <v>0.68889223965221613</v>
+        <v>1151.3460032809151</v>
       </c>
       <c r="E18">
-        <v>4.3968268288580241E-2</v>
+        <v>818.22641509433959</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>524.36391505307506</v>
+        <v>339.00111467188748</v>
       </c>
       <c r="B19">
-        <v>1116.2617238547739</v>
+        <v>4.7017707506411592E-2</v>
       </c>
       <c r="C19">
-        <v>869.83902439024394</v>
+        <v>0.64869487898290978</v>
       </c>
       <c r="D19">
-        <v>0.67875858164100389</v>
+        <v>1021.3206207932629</v>
       </c>
       <c r="E19">
-        <v>4.1117219015697377E-2</v>
+        <v>909.07281553398059</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>535.65820930944005</v>
+        <v>272.57099976595782</v>
       </c>
       <c r="B20">
-        <v>1059.9336063115361</v>
+        <v>4.6399700690659358E-2</v>
       </c>
       <c r="C20">
-        <v>899.81796690307328</v>
+        <v>0.64866981816266667</v>
       </c>
       <c r="D20">
-        <v>0.65009587422723203</v>
+        <v>878.75679774936066</v>
       </c>
       <c r="E20">
-        <v>4.3179331315625583E-2</v>
+        <v>896.17061611374413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>459.49331762045199</v>
+      </c>
+      <c r="B21">
+        <v>3.6515515124321003E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.67047513331275621</v>
+      </c>
+      <c r="D21">
+        <v>1030.383013374121</v>
+      </c>
+      <c r="E21">
+        <v>954.30403800475062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>426.6835161810435</v>
+      </c>
+      <c r="B22">
+        <v>3.5209002439960072E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.68597500513688547</v>
+      </c>
+      <c r="D22">
+        <v>966.87693129301988</v>
+      </c>
+      <c r="E22">
+        <v>913.43020594965674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>233.27764769438491</v>
+      </c>
+      <c r="B23">
+        <v>3.5958778856854293E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.6665833563648077</v>
+      </c>
+      <c r="D23">
+        <v>751.46464909528584</v>
+      </c>
+      <c r="E23">
+        <v>903.26923076923072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>483.72885798834437</v>
+      </c>
+      <c r="B24">
+        <v>4.5285813401971679E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.6638804927630918</v>
+      </c>
+      <c r="D24">
+        <v>1046.499565580315</v>
+      </c>
+      <c r="E24">
+        <v>787.33915211970077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>465.47614572549651</v>
+      </c>
+      <c r="B25">
+        <v>4.343910522204307E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.68082669748065627</v>
+      </c>
+      <c r="D25">
+        <v>991.24903726240007</v>
+      </c>
+      <c r="E25">
+        <v>809.64883720930231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>553.69438041249941</v>
+      </c>
+      <c r="B26">
+        <v>4.7533778065998948E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.68522175301847432</v>
+      </c>
+      <c r="D26">
+        <v>1137.793062711025</v>
+      </c>
+      <c r="E26">
+        <v>872.0915841584158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>484.88850743365492</v>
+      </c>
+      <c r="B27">
+        <v>3.2423466789002611E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.67954448201402429</v>
+      </c>
+      <c r="D27">
+        <v>1047.847539191092</v>
+      </c>
+      <c r="E27">
+        <v>1037.407317073171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>349.26296286136471</v>
+      </c>
+      <c r="B28">
+        <v>5.1848736400531691E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.65282669258676251</v>
+      </c>
+      <c r="D28">
+        <v>930.89611878266749</v>
+      </c>
+      <c r="E28">
+        <v>763.45833333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>383.83997876765488</v>
+      </c>
+      <c r="B29">
+        <v>3.9070095232163857E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.64108095532316522</v>
+      </c>
+      <c r="D29">
+        <v>946.11954541483499</v>
+      </c>
+      <c r="E29">
+        <v>868.29772727272723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>412.82977735442489</v>
+      </c>
+      <c r="B30">
+        <v>4.3068151536662769E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.64902510093821819</v>
+      </c>
+      <c r="D30">
+        <v>947.02218601951017</v>
+      </c>
+      <c r="E30">
+        <v>832.85037406483787</v>
       </c>
     </row>
   </sheetData>
@@ -727,372 +897,542 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FAB44D-C29F-4C9F-9C5B-98E50491260C}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E20"/>
+      <selection activeCell="G1" sqref="G1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>477.477268087006</v>
+        <v>353.72783832115391</v>
       </c>
       <c r="B1">
-        <v>912.29590995088665</v>
+        <v>3.6256038578632688E-2</v>
       </c>
       <c r="C1">
-        <v>891.19362745098044</v>
+        <v>0.68052179639883381</v>
       </c>
       <c r="D1">
-        <v>0.66091202964747797</v>
+        <v>738.58751035562341</v>
       </c>
       <c r="E1">
-        <v>4.045970477970752E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>449.26725785413475</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>874.56381491190177</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>877.61764267236765</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.66813800858030947</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>4.5451774907464944E-2</v>
+        <v>863.39901477832507</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>426.882872084385 ± 27.2782956978</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0414020412532519 ± 0.00159106532687746</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.674838240566761 ± 0.00578905657977762</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>817.810331698913 ± 33.4539002824878</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>883.747590868765 ± 30.562904327991</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>508.85117823563968</v>
+        <v>409.69209666334638</v>
       </c>
       <c r="B2">
-        <v>886.54807582890226</v>
+        <v>4.9117302608558219E-2</v>
       </c>
       <c r="C2">
-        <v>865.65151515151513</v>
+        <v>0.6786795437224028</v>
       </c>
       <c r="D2">
-        <v>0.68206151417036365</v>
+        <v>788.11433887889245</v>
       </c>
       <c r="E2">
-        <v>5.7440319374376887E-2</v>
+        <v>891.86649874055411</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>453.58858495796278</v>
+        <v>447.919946208439</v>
       </c>
       <c r="B3">
-        <v>867.51108423607104</v>
+        <v>4.5853714779164029E-2</v>
       </c>
       <c r="C3">
-        <v>800.69248291571751</v>
+        <v>0.6883161840104437</v>
       </c>
       <c r="D3">
-        <v>0.6312953836029882</v>
+        <v>803.15557570732778</v>
       </c>
       <c r="E3">
-        <v>4.9369558021736509E-2</v>
+        <v>768.98633257403185</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>484.55118343884959</v>
+        <v>368.15504984434642</v>
       </c>
       <c r="B4">
-        <v>872.24722847287705</v>
+        <v>4.2171492094854372E-2</v>
       </c>
       <c r="C4">
-        <v>957.08607594936711</v>
+        <v>0.66304610669881736</v>
       </c>
       <c r="D4">
-        <v>0.67110163287068092</v>
+        <v>721.70044831826976</v>
       </c>
       <c r="E4">
-        <v>4.1149444608796673E-2</v>
+        <v>991.56708860759488</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>429.36103558229951</v>
+        <v>429.13615099430478</v>
       </c>
       <c r="B5">
-        <v>874.1911223682755</v>
+        <v>3.9317137766540278E-2</v>
       </c>
       <c r="C5">
-        <v>718.1939252336449</v>
+        <v>0.6866109568896106</v>
       </c>
       <c r="D5">
-        <v>0.66732525312333191</v>
+        <v>804.28925135106454</v>
       </c>
       <c r="E5">
-        <v>4.6026117299262433E-2</v>
+        <v>719.17330210772832</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>322.86968298007798</v>
+        <v>437.75334617241163</v>
       </c>
       <c r="B6">
-        <v>882.51982365194635</v>
+        <v>3.9438592949214049E-2</v>
       </c>
       <c r="C6">
-        <v>958.9192399049881</v>
+        <v>0.68412286301644321</v>
       </c>
       <c r="D6">
-        <v>0.65869773173854329</v>
+        <v>773.70332662833323</v>
       </c>
       <c r="E6">
-        <v>3.9528449463084217E-2</v>
+        <v>944.58571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>454.56576678048299</v>
+        <v>349.49543598351119</v>
       </c>
       <c r="B7">
-        <v>847.03970554407829</v>
+        <v>4.1094086700720289E-2</v>
       </c>
       <c r="C7">
-        <v>972.38780487804877</v>
+        <v>0.66546949055704541</v>
       </c>
       <c r="D7">
-        <v>0.66841623535251593</v>
+        <v>753.78677855311582</v>
       </c>
       <c r="E7">
-        <v>4.9593403782592027E-2</v>
+        <v>994.46228710462287</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>522.06524355895067</v>
+        <v>475.20692170294888</v>
       </c>
       <c r="B8">
-        <v>931.42892371675362</v>
+        <v>4.310495214853384E-2</v>
       </c>
       <c r="C8">
-        <v>846.1145038167939</v>
+        <v>0.68428133175240813</v>
       </c>
       <c r="D8">
-        <v>0.68442583352750674</v>
+        <v>828.7521965194079</v>
       </c>
       <c r="E8">
-        <v>3.5045753714844932E-2</v>
+        <v>870.30279898218828</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>306.050991054831</v>
+        <v>491.36938278281548</v>
       </c>
       <c r="B9">
-        <v>830.49236128502457</v>
+        <v>4.4218126620808117E-2</v>
       </c>
       <c r="C9">
-        <v>857.69326683291774</v>
+        <v>0.67506319620964961</v>
       </c>
       <c r="D9">
-        <v>0.64837050290205778</v>
+        <v>878.62790073543192</v>
       </c>
       <c r="E9">
-        <v>4.8505792169670547E-2</v>
+        <v>865.96249999999998</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>513.66636528383765</v>
+        <v>358.7528682305973</v>
       </c>
       <c r="B10">
-        <v>893.79462775965646</v>
+        <v>4.2889004123221948E-2</v>
       </c>
       <c r="C10">
-        <v>940.86073059360729</v>
+        <v>0.68354239822483409</v>
       </c>
       <c r="D10">
-        <v>0.70294208606574249</v>
+        <v>748.62634012116098</v>
       </c>
       <c r="E10">
-        <v>4.5061397631385808E-2</v>
+        <v>961.19362186788157</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>354.35551311645548</v>
+        <v>447.63419995489272</v>
       </c>
       <c r="B11">
-        <v>783.95135027397043</v>
+        <v>5.066621687547547E-2</v>
       </c>
       <c r="C11">
-        <v>752.60859188544157</v>
+        <v>0.65184818183158055</v>
       </c>
       <c r="D11">
-        <v>0.66121992786538153</v>
+        <v>841.33394974974738</v>
       </c>
       <c r="E11">
-        <v>4.2993684436889487E-2</v>
+        <v>749.91626794258377</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>470.17440011937998</v>
+        <v>287.20663846612871</v>
       </c>
       <c r="B12">
-        <v>946.12217058576596</v>
+        <v>4.3501041423968337E-2</v>
       </c>
       <c r="C12">
-        <v>751.34976525821594</v>
+        <v>0.6750421810706988</v>
       </c>
       <c r="D12">
-        <v>0.65091663643072262</v>
+        <v>629.37184518386982</v>
       </c>
       <c r="E12">
-        <v>4.9150975505081518E-2</v>
+        <v>750.25352112676057</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>466.19608771451618</v>
+        <v>364.88421296146498</v>
       </c>
       <c r="B13">
-        <v>848.06265227809831</v>
+        <v>3.8249924845537887E-2</v>
       </c>
       <c r="C13">
-        <v>906.05596107055965</v>
+        <v>0.65588002278255564</v>
       </c>
       <c r="D13">
-        <v>0.68132767907036795</v>
+        <v>765.0279377893504</v>
       </c>
       <c r="E13">
-        <v>4.5225953949086628E-2</v>
+        <v>939.8710462287105</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>503.87379343447128</v>
+        <v>576.01486207908044</v>
       </c>
       <c r="B14">
-        <v>908.35070910941818</v>
+        <v>4.4747327080649477E-2</v>
       </c>
       <c r="C14">
-        <v>988.84520884520884</v>
+        <v>0.65881286377600279</v>
       </c>
       <c r="D14">
-        <v>0.66305223871133379</v>
+        <v>958.58533992177036</v>
       </c>
       <c r="E14">
-        <v>4.9481469403324527E-2</v>
+        <v>1012.68137254902</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>471.3617734672589</v>
+        <v>421.66385473494449</v>
       </c>
       <c r="B15">
-        <v>833.90147861680248</v>
+        <v>4.0661358687833819E-2</v>
       </c>
       <c r="C15">
-        <v>956.61194029850742</v>
+        <v>0.66503493465401731</v>
       </c>
       <c r="D15">
-        <v>0.69000544362562743</v>
+        <v>809.02544129026865</v>
       </c>
       <c r="E15">
-        <v>4.2744599472134402E-2</v>
+        <v>992.47890818858559</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>387.17392187827829</v>
+        <v>395.26630377558541</v>
       </c>
       <c r="B16">
-        <v>855.85668607132641</v>
+        <v>4.0291336551673843E-2</v>
       </c>
       <c r="C16">
-        <v>1006.41564792176</v>
+        <v>0.68029001702403613</v>
       </c>
       <c r="D16">
-        <v>0.63877499392579162</v>
+        <v>961.88118376243222</v>
       </c>
       <c r="E16">
-        <v>5.4174742344973083E-2</v>
+        <v>985.36185819070909</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>426.76326531354982</v>
+        <v>629.03315151157153</v>
       </c>
       <c r="B17">
-        <v>833.38692983610247</v>
+        <v>3.7950108176049283E-2</v>
       </c>
       <c r="C17">
-        <v>855.80652680652679</v>
+        <v>0.67076240748881355</v>
       </c>
       <c r="D17">
-        <v>0.68347299059229527</v>
+        <v>1006.362139442519</v>
       </c>
       <c r="E17">
-        <v>4.5430775635552319E-2</v>
+        <v>882.85780885780889</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>357.07641834191247</v>
+        <v>507.66002540693512</v>
       </c>
       <c r="B18">
-        <v>793.23396036445638</v>
+        <v>4.2207970502041017E-2</v>
       </c>
       <c r="C18">
-        <v>780.42452830188677</v>
+        <v>0.69367389116081657</v>
       </c>
       <c r="D18">
-        <v>0.70531504608824958</v>
+        <v>933.22786236791251</v>
       </c>
       <c r="E18">
-        <v>3.9005760141796457E-2</v>
+        <v>780.41509433962267</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>395.87473277307959</v>
+        <v>492.00356680664572</v>
       </c>
       <c r="B19">
-        <v>774.34033598558437</v>
+        <v>4.4384008788747972E-2</v>
       </c>
       <c r="C19">
-        <v>880.35365853658539</v>
+        <v>0.65049203289970325</v>
       </c>
       <c r="D19">
-        <v>0.67922233716094582</v>
+        <v>886.54186796642648</v>
       </c>
       <c r="E19">
-        <v>4.4607051928961472E-2</v>
+        <v>887.40097799511</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>518.2916063166108</v>
+        <v>304.96782817515111</v>
       </c>
       <c r="B20">
-        <v>863.01270379309938</v>
+        <v>3.9633100698515472E-2</v>
       </c>
       <c r="C20">
-        <v>895.85545023696682</v>
+        <v>0.6820856178963427</v>
       </c>
       <c r="D20">
-        <v>0.64123049499879659</v>
+        <v>628.88912726261833</v>
       </c>
       <c r="E20">
-        <v>4.3200305815048502E-2</v>
+        <v>886.43127962085305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>482.91086102906638</v>
+      </c>
+      <c r="B21">
+        <v>3.3424620240484537E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.66929148299632546</v>
+      </c>
+      <c r="D21">
+        <v>854.62818270061246</v>
+      </c>
+      <c r="E21">
+        <v>958.19431279620858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>456.96726542458259</v>
+      </c>
+      <c r="B22">
+        <v>3.6149833232771843E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.68160812415576666</v>
+      </c>
+      <c r="D22">
+        <v>946.24675352702286</v>
+      </c>
+      <c r="E22">
+        <v>920.66284403669727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>479.72811321959682</v>
+      </c>
+      <c r="B23">
+        <v>4.0720721759172671E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.69640035273705014</v>
+      </c>
+      <c r="D23">
+        <v>926.07284096902242</v>
+      </c>
+      <c r="E23">
+        <v>890.05542168674697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>351.29685315319301</v>
+      </c>
+      <c r="B24">
+        <v>3.3985325865765408E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.68714724614696954</v>
+      </c>
+      <c r="D24">
+        <v>737.14571930802697</v>
+      </c>
+      <c r="E24">
+        <v>781.75373134328356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>399.99069457120419</v>
+      </c>
+      <c r="B25">
+        <v>4.6045060625990571E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.66681025550371886</v>
+      </c>
+      <c r="D25">
+        <v>798.48543265073977</v>
+      </c>
+      <c r="E25">
+        <v>820.44779582366584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>474.7839006360108</v>
+      </c>
+      <c r="B26">
+        <v>4.2056217418541451E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.70387294094527453</v>
+      </c>
+      <c r="D26">
+        <v>821.72625500237552</v>
+      </c>
+      <c r="E26">
+        <v>856.73514851485152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>470.78444462040068</v>
+      </c>
+      <c r="B27">
+        <v>3.09862518862484E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.70915120900478368</v>
+      </c>
+      <c r="D27">
+        <v>829.86915143272779</v>
+      </c>
+      <c r="E27">
+        <v>1021.017073170732</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>434.09167648520457</v>
+      </c>
+      <c r="B28">
+        <v>4.2529313622462248E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.65628797923908055</v>
+      </c>
+      <c r="D28">
+        <v>877.25854821000576</v>
+      </c>
+      <c r="E28">
+        <v>808.71990740740739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>348.24057916872482</v>
+      </c>
+      <c r="B29">
+        <v>4.4733183489821762E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.64182800354524827</v>
+      </c>
+      <c r="D29">
+        <v>714.48882363207997</v>
+      </c>
+      <c r="E29">
+        <v>873.28018223234619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>360.14809344728349</v>
+      </c>
+      <c r="B30">
+        <v>4.5677867455558997E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.65917360466353592</v>
+      </c>
+      <c r="D30">
+        <v>768.79788162921602</v>
+      </c>
+      <c r="E30">
+        <v>842.39401496259347</v>
       </c>
     </row>
   </sheetData>
@@ -1102,372 +1442,542 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE8EE0-1DE8-4721-B5A7-7B3DA0B522E1}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E20"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>396.67010394912018</v>
+        <v>465.46355603673271</v>
       </c>
       <c r="B1">
-        <v>1095.336189790962</v>
+        <v>4.2894477684638617E-2</v>
       </c>
       <c r="C1">
-        <v>907.94103194103195</v>
+        <v>0.64067368252457935</v>
       </c>
       <c r="D1">
-        <v>0.64511051604428193</v>
+        <v>1121.383243238495</v>
       </c>
       <c r="E1">
-        <v>4.0511604240245733E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>422.17102646258064</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>1013.9882605159048</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>892.22361485683837</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.65944480897993685</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>4.3638036000238169E-2</v>
+        <v>888.66666666666663</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>424.186370592551 ± 33.3281701201012</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.045410944248559 ± 0.00156452816347908</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.657051170383097 ± 0.00768261126173927</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>1020.49455833406 ± 39.2718128591729</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>888.65317432007 ± 30.6597022120152</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>523.19910919562813</v>
+        <v>529.17805707934212</v>
       </c>
       <c r="B2">
-        <v>1142.8142878035751</v>
+        <v>4.4384227812786128E-2</v>
       </c>
       <c r="C2">
-        <v>927.1834170854271</v>
+        <v>0.6736817481021794</v>
       </c>
       <c r="D2">
-        <v>0.65168821304564228</v>
+        <v>1250.0899475051169</v>
       </c>
       <c r="E2">
-        <v>4.4117694120445847E-2</v>
+        <v>904.65994962216621</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>401.85931383680429</v>
+        <v>365.20822890365918</v>
       </c>
       <c r="B3">
-        <v>988.28378509992081</v>
+        <v>4.6483227970540587E-2</v>
       </c>
       <c r="C3">
-        <v>782.07744874715263</v>
+        <v>0.61276956746992506</v>
       </c>
       <c r="D3">
-        <v>0.67397155085400717</v>
+        <v>1068.9491201534911</v>
       </c>
       <c r="E3">
-        <v>4.4808952637309767E-2</v>
+        <v>811.7772727272727</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>374.06024506843403</v>
+        <v>343.91796059303692</v>
       </c>
       <c r="B4">
-        <v>946.35326628219218</v>
+        <v>4.5743683448461248E-2</v>
       </c>
       <c r="C4">
-        <v>985.48737373737379</v>
+        <v>0.63892308282520349</v>
       </c>
       <c r="D4">
-        <v>0.64644724579792023</v>
+        <v>1024.4254343978889</v>
       </c>
       <c r="E4">
-        <v>4.154110288837206E-2</v>
+        <v>991.15949367088604</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>322.38139910012382</v>
+        <v>499.01566039512619</v>
       </c>
       <c r="B5">
-        <v>964.04068186488666</v>
+        <v>5.5534365537739598E-2</v>
       </c>
       <c r="C5">
-        <v>740.3060747663551</v>
+        <v>0.62618606590161274</v>
       </c>
       <c r="D5">
-        <v>0.64724244210617798</v>
+        <v>1048.686375259136</v>
       </c>
       <c r="E5">
-        <v>4.5340965641155452E-2</v>
+        <v>728.08215962441318</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>513.59857341985526</v>
+        <v>478.93926959418349</v>
       </c>
       <c r="B6">
-        <v>1135.648578038325</v>
+        <v>4.6182170332981339E-2</v>
       </c>
       <c r="C6">
-        <v>963.27962085308059</v>
+        <v>0.6856952785630237</v>
       </c>
       <c r="D6">
-        <v>0.66535645363902152</v>
+        <v>1031.479780162553</v>
       </c>
       <c r="E6">
-        <v>4.6273135923413422E-2</v>
+        <v>952.70546318289792</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>331.57174953891729</v>
+        <v>456.56092998148648</v>
       </c>
       <c r="B7">
-        <v>890.99231291883416</v>
+        <v>4.810294709793763E-2</v>
       </c>
       <c r="C7">
-        <v>941.44362745098044</v>
+        <v>0.67335118531549565</v>
       </c>
       <c r="D7">
-        <v>0.69328684139155516</v>
+        <v>1118.849409406512</v>
       </c>
       <c r="E7">
-        <v>4.826212781334166E-2</v>
+        <v>960.03170731707314</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>464.13122259430372</v>
+        <v>394.289567440827</v>
       </c>
       <c r="B8">
-        <v>990.74628609839237</v>
+        <v>4.701218670333937E-2</v>
       </c>
       <c r="C8">
-        <v>855.71755725190837</v>
+        <v>0.67039413473875664</v>
       </c>
       <c r="D8">
-        <v>0.64019678662122259</v>
+        <v>994.39159791507541</v>
       </c>
       <c r="E8">
-        <v>4.5391448260821317E-2</v>
+        <v>885.77721518987346</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>378.79250990651769</v>
+        <v>466.12929667085751</v>
       </c>
       <c r="B9">
-        <v>929.20282270967016</v>
+        <v>5.3653449542133143E-2</v>
       </c>
       <c r="C9">
-        <v>832.08</v>
+        <v>0.63807028503498986</v>
       </c>
       <c r="D9">
-        <v>0.69303750275043896</v>
+        <v>1053.424598927279</v>
       </c>
       <c r="E9">
-        <v>4.4090325338032518E-2</v>
+        <v>866.63681592039802</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>512.95143705742385</v>
+        <v>351.77135725508589</v>
       </c>
       <c r="B10">
-        <v>1155.310620311488</v>
+        <v>4.04745630090571E-2</v>
       </c>
       <c r="C10">
-        <v>987.5272727272727</v>
+        <v>0.66690827632061667</v>
       </c>
       <c r="D10">
-        <v>0.67092132887702727</v>
+        <v>922.14904842505086</v>
       </c>
       <c r="E10">
-        <v>3.488716815553837E-2</v>
+        <v>954.97711670480544</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>470.28081650511717</v>
+        <v>403.25795529525232</v>
       </c>
       <c r="B11">
-        <v>1066.6312782807749</v>
+        <v>4.6849728455588387E-2</v>
       </c>
       <c r="C11">
-        <v>752.0930787589499</v>
+        <v>0.6753703456743434</v>
       </c>
       <c r="D11">
-        <v>0.66027103772953755</v>
+        <v>945.36485081100182</v>
       </c>
       <c r="E11">
-        <v>3.8579912360116833E-2</v>
+        <v>739.07177033492826</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>424.16909384265568</v>
+        <v>415.55303608097392</v>
       </c>
       <c r="B12">
-        <v>1017.847653938828</v>
+        <v>4.3282739517729762E-2</v>
       </c>
       <c r="C12">
-        <v>759.54800936768152</v>
+        <v>0.68225766642248131</v>
       </c>
       <c r="D12">
-        <v>0.64400664153714415</v>
+        <v>940.49104244997784</v>
       </c>
       <c r="E12">
-        <v>5.1563989738648591E-2</v>
+        <v>722.48235294117649</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>447.46769213275661</v>
+        <v>302.7280832042926</v>
       </c>
       <c r="B13">
-        <v>1023.594123873359</v>
+        <v>4.7720348113443813E-2</v>
       </c>
       <c r="C13">
-        <v>945.37712895377126</v>
+        <v>0.66563180395031007</v>
       </c>
       <c r="D13">
-        <v>0.62934816833663298</v>
+        <v>917.79257399924086</v>
       </c>
       <c r="E13">
-        <v>5.1993225999567683E-2</v>
+        <v>922.63658536585365</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>446.80513690740491</v>
+        <v>362.48040557110841</v>
       </c>
       <c r="B14">
-        <v>996.85567185527623</v>
+        <v>4.2876936859298373E-2</v>
       </c>
       <c r="C14">
-        <v>1012.3970588235291</v>
+        <v>0.66166055746142682</v>
       </c>
       <c r="D14">
-        <v>0.65973710049207446</v>
+        <v>907.24333503171908</v>
       </c>
       <c r="E14">
-        <v>4.0862473750451427E-2</v>
+        <v>993.30712530712526</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>324.62699388364769</v>
+        <v>332.69666507053051</v>
       </c>
       <c r="B15">
-        <v>866.16634887208852</v>
+        <v>3.9538612055022813E-2</v>
       </c>
       <c r="C15">
-        <v>990.8955223880597</v>
+        <v>0.68581442917884472</v>
       </c>
       <c r="D15">
-        <v>0.67105030547636946</v>
+        <v>876.06254028429362</v>
       </c>
       <c r="E15">
-        <v>3.6346413136111901E-2</v>
+        <v>960.29353233830841</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>288.11432031772642</v>
+        <v>371.04723313695422</v>
       </c>
       <c r="B16">
-        <v>756.9348237488432</v>
+        <v>5.1565393549720062E-2</v>
       </c>
       <c r="C16">
-        <v>1010.853658536585</v>
+        <v>0.62530394327233885</v>
       </c>
       <c r="D16">
-        <v>0.63224774580312948</v>
+        <v>1048.0534294683521</v>
       </c>
       <c r="E16">
-        <v>4.8991103612090837E-2</v>
+        <v>1000.690243902439</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>290.9366729527261</v>
+        <v>343.61822952072242</v>
       </c>
       <c r="B17">
-        <v>870.82093257488395</v>
+        <v>4.8692940324271808E-2</v>
       </c>
       <c r="C17">
-        <v>891.90909090909088</v>
+        <v>0.63724294088330224</v>
       </c>
       <c r="D17">
-        <v>0.6499248730793904</v>
+        <v>846.32731712753775</v>
       </c>
       <c r="E17">
-        <v>4.8091963121339523E-2</v>
+        <v>897.97906976744184</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>512.27638023519808</v>
+        <v>464.28643575186612</v>
       </c>
       <c r="B18">
-        <v>1026.716628902916</v>
+        <v>4.549507705901823E-2</v>
       </c>
       <c r="C18">
-        <v>775.37735849056605</v>
+        <v>0.65727232747834263</v>
       </c>
       <c r="D18">
-        <v>0.68030941207523399</v>
+        <v>1072.6971718634891</v>
       </c>
       <c r="E18">
-        <v>4.4334910769263922E-2</v>
+        <v>802.42452830188677</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>468.0610095660432</v>
+        <v>373.66017004291092</v>
       </c>
       <c r="B19">
-        <v>1059.1305220227191</v>
+        <v>4.4909423025932031E-2</v>
       </c>
       <c r="C19">
-        <v>919.85401459854018</v>
+        <v>0.6204607242961736</v>
       </c>
       <c r="D19">
-        <v>0.62704322394595946</v>
+        <v>908.99623697991706</v>
       </c>
       <c r="E19">
-        <v>3.9927337590378163E-2</v>
+        <v>916.06310679611647</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>482.23529239710831</v>
+        <v>213.35132678480309</v>
       </c>
       <c r="B20">
-        <v>1124.5423191644029</v>
+        <v>4.166446566997007E-2</v>
       </c>
       <c r="C20">
-        <v>896.77882352941174</v>
+        <v>0.6544589175748573</v>
       </c>
       <c r="D20">
-        <v>0.66003928811860324</v>
+        <v>821.20233544894552</v>
       </c>
       <c r="E20">
-        <v>4.099376242349749E-2</v>
+        <v>922.50707547169816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>540.79468304896409</v>
+      </c>
+      <c r="B21">
+        <v>4.5139738631642827E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.66097077531885851</v>
+      </c>
+      <c r="D21">
+        <v>1051.2467744632211</v>
+      </c>
+      <c r="E21">
+        <v>993.81796690307328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>678.04992210367914</v>
+      </c>
+      <c r="B22">
+        <v>5.2514106137888553E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.67866792789742969</v>
+      </c>
+      <c r="D22">
+        <v>1191.1525276826501</v>
+      </c>
+      <c r="E22">
+        <v>897.4206896551724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>459.76355458569128</v>
+      </c>
+      <c r="B23">
+        <v>3.9186987786368817E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.66218197363326925</v>
+      </c>
+      <c r="D23">
+        <v>1144.7501530417619</v>
+      </c>
+      <c r="E23">
+        <v>923.22115384615381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>343.79294262480732</v>
+      </c>
+      <c r="B24">
+        <v>4.3096928885960117E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.66195572829388383</v>
+      </c>
+      <c r="D24">
+        <v>1000.252433168526</v>
+      </c>
+      <c r="E24">
+        <v>796.27295285359799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>536.59983937640425</v>
+      </c>
+      <c r="B25">
+        <v>4.6578313948867162E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.6815473448633047</v>
+      </c>
+      <c r="D25">
+        <v>1068.8848274647719</v>
+      </c>
+      <c r="E25">
+        <v>823.11162790697676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>566.12073978001001</v>
+      </c>
+      <c r="B26">
+        <v>3.9845369340626671E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.65528565410477635</v>
+      </c>
+      <c r="D26">
+        <v>1244.629401689931</v>
+      </c>
+      <c r="E26">
+        <v>901.53940886699502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>413.10562059221428</v>
+      </c>
+      <c r="B27">
+        <v>3.7799756109926377E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.66602650676227704</v>
+      </c>
+      <c r="D27">
+        <v>952.57659354281066</v>
+      </c>
+      <c r="E27">
+        <v>1025.8924205378969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>372.46276644076528</v>
+      </c>
+      <c r="B28">
+        <v>5.0020603775080948E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.68499829642688481</v>
+      </c>
+      <c r="D28">
+        <v>924.7236210778284</v>
+      </c>
+      <c r="E28">
+        <v>740.73148148148152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>395.69511203735669</v>
+      </c>
+      <c r="B29">
+        <v>4.1512961542658912E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.642492951132839</v>
+      </c>
+      <c r="D29">
+        <v>1012.080729278198</v>
+      </c>
+      <c r="E29">
+        <v>857.134703196347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>486.05251277688581</v>
+      </c>
+      <c r="B30">
+        <v>4.3572597528138052E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.62528099007059812</v>
+      </c>
+      <c r="D30">
+        <v>1106.4802997569391</v>
+      </c>
+      <c r="E30">
+        <v>878.52357320099259</v>
       </c>
     </row>
   </sheetData>
@@ -1477,372 +1987,546 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4FB0E1-FDF5-4ABE-86AF-4CABCE14E9FA}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E20"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>345.6756448938479</v>
+        <v>404.36824180834287</v>
       </c>
       <c r="B1">
-        <v>746.5834218001329</v>
+        <v>2.9088442786539839E-2</v>
       </c>
       <c r="C1">
-        <v>887.70343137254906</v>
+        <v>0.68059024940948298</v>
       </c>
       <c r="D1">
-        <v>0.68308827397221639</v>
+        <v>755.51822816890888</v>
       </c>
       <c r="E1">
-        <v>2.9143757192638911E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>379.22106356285104</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>795.6497758649308</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>890.11827885317302</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.66921794973169091</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>4.2765245322941695E-2</v>
+        <v>873.96805896805893</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>427.842485451361 ± 28.6111474802041</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0411392737813536 ± 0.00211239003412114</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.677003829314889 ± 0.00585570127139358</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>817.439265800882 ± 33.0439660604003</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>880.760262838555 ± 30.1140441442557</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>389.31225969780979</v>
+        <v>282.60755153777649</v>
       </c>
       <c r="B2">
-        <v>847.26492103688418</v>
+        <v>5.0544690705296338E-2</v>
       </c>
       <c r="C2">
-        <v>908.80604534005033</v>
+        <v>0.66519837126453019</v>
       </c>
       <c r="D2">
-        <v>0.66594102146256906</v>
+        <v>723.3338209589914</v>
       </c>
       <c r="E2">
-        <v>5.2072360602846098E-2</v>
+        <v>899.95465994962217</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>405.24538396026958</v>
+        <v>481.71502822979079</v>
       </c>
       <c r="B3">
-        <v>817.76129396757381</v>
+        <v>4.3324708664163158E-2</v>
       </c>
       <c r="C3">
-        <v>798.17539863325737</v>
+        <v>0.69282821542598716</v>
       </c>
       <c r="D3">
-        <v>0.67431880064786276</v>
+        <v>903.19513166869808</v>
       </c>
       <c r="E3">
-        <v>4.3056313930646593E-2</v>
+        <v>768.53881278538813</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(A1:A15)</f>
+        <v>426.1031977268949</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>363.30437103351062</v>
+        <v>380.71374547801253</v>
       </c>
       <c r="B4">
-        <v>806.53846198777842</v>
+        <v>4.5435739926894779E-2</v>
       </c>
       <c r="C4">
-        <v>988.09113924050632</v>
+        <v>0.66863336010467556</v>
       </c>
       <c r="D4">
-        <v>0.6521815480383294</v>
+        <v>816.84910895660653</v>
       </c>
       <c r="E4">
-        <v>3.8569850190513587E-2</v>
+        <v>969.63959390862942</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>304.11264189937077</v>
+        <v>410.49066255077128</v>
       </c>
       <c r="B5">
-        <v>697.11447565393564</v>
+        <v>5.0659887248849317E-2</v>
       </c>
       <c r="C5">
-        <v>739.57142857142856</v>
+        <v>0.65219947387304855</v>
       </c>
       <c r="D5">
-        <v>0.65505786249042375</v>
+        <v>914.6199771022583</v>
       </c>
       <c r="E5">
-        <v>4.5109103476560303E-2</v>
+        <v>735.17882352941172</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>408.36219637208478</v>
+        <v>333.86137235681019</v>
       </c>
       <c r="B6">
-        <v>819.41849957452632</v>
+        <v>3.1031599693241221E-2</v>
       </c>
       <c r="C6">
-        <v>961.52969121140143</v>
+        <v>0.69720276485724431</v>
       </c>
       <c r="D6">
-        <v>0.67464944088096279</v>
+        <v>667.01997898544948</v>
       </c>
       <c r="E6">
-        <v>3.9428378309744369E-2</v>
+        <v>933.36602870813397</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>438.22955784240918</v>
+        <v>421.41189345967553</v>
       </c>
       <c r="B7">
-        <v>800.79780177117482</v>
+        <v>3.643585209394342E-2</v>
       </c>
       <c r="C7">
-        <v>994.2408759124088</v>
+        <v>0.6989148819865395</v>
       </c>
       <c r="D7">
-        <v>0.67040304380789473</v>
+        <v>782.74714452939963</v>
       </c>
       <c r="E7">
-        <v>4.9696175906319542E-2</v>
+        <v>946.57598039215691</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>407.03726310603469</v>
+        <v>434.78357730805362</v>
       </c>
       <c r="B8">
-        <v>841.60017785846196</v>
+        <v>4.7471213229698057E-2</v>
       </c>
       <c r="C8">
-        <v>866.1649746192893</v>
+        <v>0.6564753977537513</v>
       </c>
       <c r="D8">
-        <v>0.68600229608588525</v>
+        <v>794.10310626131172</v>
       </c>
       <c r="E8">
-        <v>4.5863511609855287E-2</v>
+        <v>852.35532994923858</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>399.32758720859749</v>
+        <v>470.79277545730372</v>
       </c>
       <c r="B9">
-        <v>805.5550101989204</v>
+        <v>4.4905507692561797E-2</v>
       </c>
       <c r="C9">
-        <v>862.76499999999999</v>
+        <v>0.68342674575068396</v>
       </c>
       <c r="D9">
-        <v>0.65380480223088722</v>
+        <v>855.98928700074384</v>
       </c>
       <c r="E9">
-        <v>4.7968028108458578E-2</v>
+        <v>852.9375</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>275.09673853554239</v>
+        <v>480.51230948364798</v>
       </c>
       <c r="B10">
-        <v>669.57051524210658</v>
+        <v>3.5384653650978523E-2</v>
       </c>
       <c r="C10">
-        <v>983.75972540045768</v>
+        <v>0.70292241204334327</v>
       </c>
       <c r="D10">
-        <v>0.66371486903285182</v>
+        <v>833.57842445237918</v>
       </c>
       <c r="E10">
-        <v>4.0452537955631189E-2</v>
+        <v>941.85388127853878</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>374.14046696532859</v>
+        <v>460.41823274414418</v>
       </c>
       <c r="B11">
-        <v>827.1981340262671</v>
+        <v>4.8168064749080731E-2</v>
       </c>
       <c r="C11">
-        <v>732.6875</v>
+        <v>0.66601657931100067</v>
       </c>
       <c r="D11">
-        <v>0.66610808507756447</v>
+        <v>834.57527949197981</v>
       </c>
       <c r="E11">
-        <v>4.3161639967070009E-2</v>
+        <v>731.78229665071774</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>558.7268636902611</v>
+        <v>418.67374922029131</v>
       </c>
       <c r="B12">
-        <v>970.19359720374428</v>
+        <v>4.2007061235928032E-2</v>
       </c>
       <c r="C12">
-        <v>723.23529411764707</v>
+        <v>0.67327470825193814</v>
       </c>
       <c r="D12">
-        <v>0.69479825838870735</v>
+        <v>766.99849168706055</v>
       </c>
       <c r="E12">
-        <v>4.8024848001263623E-2</v>
+        <v>754.87323943661977</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>367.38401811787912</v>
+        <v>491.67032120368123</v>
       </c>
       <c r="B13">
-        <v>870.33418140990159</v>
+        <v>3.7323249247118592E-2</v>
       </c>
       <c r="C13">
-        <v>937.61557177615566</v>
+        <v>0.6861825481324455</v>
       </c>
       <c r="D13">
-        <v>0.64018714024149648</v>
+        <v>845.55441325747699</v>
       </c>
       <c r="E13">
-        <v>4.2833236370650639E-2</v>
+        <v>926.87347931873478</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>419.75293576427578</v>
+        <v>554.3888866544055</v>
       </c>
       <c r="B14">
-        <v>823.73185020161952</v>
+        <v>4.0452438916904303E-2</v>
       </c>
       <c r="C14">
-        <v>997.89460784313724</v>
+        <v>0.67918653898426806</v>
       </c>
       <c r="D14">
-        <v>0.67613253169517984</v>
+        <v>971.57628372124191</v>
       </c>
       <c r="E14">
-        <v>4.5065084093325949E-2</v>
+        <v>1004.237745098039</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>232.6080243555439</v>
+        <v>365.13961841071688</v>
       </c>
       <c r="B15">
-        <v>591.08429604093328</v>
+        <v>3.9307926464533398E-2</v>
       </c>
       <c r="C15">
-        <v>969.53349875930519</v>
+        <v>0.68215801036139989</v>
       </c>
       <c r="D15">
-        <v>0.68188127192253523</v>
+        <v>742.10199422077164</v>
       </c>
       <c r="E15">
-        <v>3.1033854128600689E-2</v>
+        <v>1002.441687344913</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>432.58908315840279</v>
+        <v>257.02930529041078</v>
       </c>
       <c r="B16">
-        <v>804.44959918728557</v>
+        <v>3.0434248109300271E-2</v>
       </c>
       <c r="C16">
-        <v>989.56585365853664</v>
+        <v>0.666797093319066</v>
       </c>
       <c r="D16">
-        <v>0.65859319374936165</v>
+        <v>640.24327423683462</v>
       </c>
       <c r="E16">
-        <v>3.7147595517656083E-2</v>
+        <v>1009.919512195122</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>610.26806420393939</v>
+        <v>419.69031256649168</v>
       </c>
       <c r="B17">
-        <v>988.8108834528274</v>
+        <v>4.7180580232808411E-2</v>
       </c>
       <c r="C17">
-        <v>872.69320843091339</v>
+        <v>0.67944612632950507</v>
       </c>
       <c r="D17">
-        <v>0.67598251238686802</v>
+        <v>766.36378347058417</v>
       </c>
       <c r="E17">
-        <v>4.0634821618175283E-2</v>
+        <v>878.13551401869154</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>356.97533288000272</v>
+        <v>470.48784953221349</v>
       </c>
       <c r="B18">
-        <v>719.35742684461491</v>
+        <v>4.0549291792362302E-2</v>
       </c>
       <c r="C18">
-        <v>781.28</v>
+        <v>0.69016628503225097</v>
       </c>
       <c r="D18">
-        <v>0.69816556316144041</v>
+        <v>831.26893379531134</v>
       </c>
       <c r="E18">
-        <v>3.9101674639452438E-2</v>
+        <v>786.51179245283015</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>436.23701826001241</v>
+        <v>489.79895993407098</v>
       </c>
       <c r="B19">
-        <v>828.7624130337399</v>
+        <v>3.5914399148957582E-2</v>
       </c>
       <c r="C19">
-        <v>864.2384428223844</v>
+        <v>0.69662067150206153</v>
       </c>
       <c r="D19">
-        <v>0.67213128077680429</v>
+        <v>878.61931306270992</v>
       </c>
       <c r="E19">
-        <v>5.3525537491046958E-2</v>
+        <v>870.73349633251837</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>377.3669827128648</v>
+        <v>304.96782817515111</v>
       </c>
       <c r="B20">
-        <v>774.17198530292842</v>
+        <v>3.9633100698515472E-2</v>
       </c>
       <c r="C20">
-        <v>914.10117647058826</v>
+        <v>0.6820856178963427</v>
       </c>
       <c r="D20">
-        <v>0.63751671742607341</v>
+        <v>628.88912726261833</v>
       </c>
       <c r="E20">
-        <v>4.1436329915927078E-2</v>
+        <v>886.43127962085305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>494.81568984753591</v>
+      </c>
+      <c r="B21">
+        <v>3.5415894195652359E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.71159726690395209</v>
+      </c>
+      <c r="D21">
+        <v>862.1384291167077</v>
+      </c>
+      <c r="E21">
+        <v>927.59382422802855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>538.80808599717284</v>
+      </c>
+      <c r="B22">
+        <v>4.0095675401450169E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.68294929514322478</v>
+      </c>
+      <c r="D22">
+        <v>913.75570625286525</v>
+      </c>
+      <c r="E22">
+        <v>914.97477064220186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>428.41773080020022</v>
+      </c>
+      <c r="B23">
+        <v>4.2815490886072033E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.65754338316670358</v>
+      </c>
+      <c r="D23">
+        <v>866.62215427438832</v>
+      </c>
+      <c r="E23">
+        <v>918.58173076923072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>326.1882756001026</v>
+      </c>
+      <c r="B24">
+        <v>4.5600954397983048E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.65876254147557201</v>
+      </c>
+      <c r="D24">
+        <v>764.76642820539337</v>
+      </c>
+      <c r="E24">
+        <v>788.75870646766168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>458.22450103945488</v>
+      </c>
+      <c r="B25">
+        <v>4.3137965215727388E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.67097953161943691</v>
+      </c>
+      <c r="D25">
+        <v>893.70601259150828</v>
+      </c>
+      <c r="E25">
+        <v>819.55348837209306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>577.72856673707702</v>
+      </c>
+      <c r="B26">
+        <v>3.7493974134276672E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.68172902020633308</v>
+      </c>
+      <c r="D26">
+        <v>945.57887220083785</v>
+      </c>
+      <c r="E26">
+        <v>895.35135135135135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>432.61734762322288</v>
+      </c>
+      <c r="B27">
+        <v>4.5055234708284118E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.65529643689130712</v>
+      </c>
+      <c r="D27">
+        <v>855.74362405236388</v>
+      </c>
+      <c r="E27">
+        <v>1042.1219512195121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>475.49555544602958</v>
+      </c>
+      <c r="B28">
+        <v>5.0879296460206488E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.65480785085881743</v>
+      </c>
+      <c r="D28">
+        <v>962.95267807851201</v>
+      </c>
+      <c r="E28">
+        <v>792.07175925925924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>303.85787583332939</v>
+      </c>
+      <c r="B29">
+        <v>3.6946628983896099E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.6509626542678465</v>
+      </c>
+      <c r="D29">
+        <v>664.89995514722364</v>
+      </c>
+      <c r="E29">
+        <v>878.43409090909086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>465.59871321493142</v>
+      </c>
+      <c r="B30">
+        <v>4.1484442769385489E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.68516084732392135</v>
+      </c>
+      <c r="D30">
+        <v>839.86901181533824</v>
+      </c>
+      <c r="E30">
+        <v>819.0575</v>
       </c>
     </row>
   </sheetData>
@@ -1852,372 +2536,549 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B268EE2E-DACF-49C5-A124-6B0C84B27DC1}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>385.69682677761631</v>
+        <v>308.63430611644083</v>
       </c>
       <c r="B1">
-        <v>972.68124882638699</v>
+        <v>4.4185151472715428E-2</v>
       </c>
       <c r="C1">
-        <v>880.01228501228502</v>
+        <v>0.65433397250008007</v>
       </c>
       <c r="D1">
-        <v>0.68568464020423681</v>
+        <v>978.3690774904378</v>
       </c>
       <c r="E1">
-        <v>3.2254613754352623E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>363.78723174373215</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>1008.300962816829</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>888.66380673526885</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.6600556689548791</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>4.2705584453384654E-2</v>
+        <v>898.63636363636363</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>356.86349555423 ± 22.4482166298345</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0432456039471521 ± 0.00157338374894668</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.659996722464394 ± 0.00588620282077721</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>997.047367957983 ± 33.8098057447342</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>891.329253371289 ± 28.0954985509208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>170.4445456041077</v>
+        <v>417.7452160216518</v>
       </c>
       <c r="B2">
-        <v>610.58717060378058</v>
+        <v>4.8562746451267493E-2</v>
       </c>
       <c r="C2">
-        <v>899.50881612090677</v>
+        <v>0.64125362540949793</v>
       </c>
       <c r="D2">
-        <v>0.67683255590192315</v>
+        <v>1183.221937859234</v>
       </c>
       <c r="E2">
-        <v>4.2605901800991781E-2</v>
+        <v>927.97481108312343</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>462.59072812955287</v>
+        <v>232.1306610610722</v>
       </c>
       <c r="B3">
-        <v>1177.7082231526499</v>
+        <v>4.64216054564901E-2</v>
       </c>
       <c r="C3">
-        <v>805.70387243735763</v>
+        <v>0.64979094493482958</v>
       </c>
       <c r="D3">
-        <v>0.67134901538771319</v>
+        <v>856.50214104201223</v>
       </c>
       <c r="E3">
-        <v>4.0629962760348512E-2</v>
+        <v>794.56621004566205</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(A1:A15)</f>
+        <v>360.67279942284074</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>389.1605986667231</v>
+        <v>406.65781708214689</v>
       </c>
       <c r="B4">
-        <v>1044.795095037882</v>
+        <v>4.4990926341708953E-2</v>
       </c>
       <c r="C4">
-        <v>961.22081218274116</v>
+        <v>0.64972678034202413</v>
       </c>
       <c r="D4">
-        <v>0.66523432950388062</v>
+        <v>1007.04695938445</v>
       </c>
       <c r="E4">
-        <v>3.6640750028089357E-2</v>
+        <v>990.9467005076142</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>299.09522519476872</v>
+        <v>301.71667036664923</v>
       </c>
       <c r="B5">
-        <v>1136.6924077246299</v>
+        <v>4.6854545797720609E-2</v>
       </c>
       <c r="C5">
-        <v>749.75409836065569</v>
+        <v>0.64596945663983052</v>
       </c>
       <c r="D5">
-        <v>0.63528268795815979</v>
+        <v>872.36065954374214</v>
       </c>
       <c r="E5">
-        <v>4.7219586343238189E-2</v>
+        <v>752.92974238875877</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>483.93093074313248</v>
+        <v>337.12927213581293</v>
       </c>
       <c r="B6">
-        <v>1217.4399569924251</v>
+        <v>4.124962634087756E-2</v>
       </c>
       <c r="C6">
-        <v>950.08571428571429</v>
+        <v>0.65822491857080423</v>
       </c>
       <c r="D6">
-        <v>0.68409719269522562</v>
+        <v>846.31247480512104</v>
       </c>
       <c r="E6">
-        <v>4.5669121058384783E-2</v>
+        <v>986.17298578199052</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>540.03604334042711</v>
+        <v>418.3234227424324</v>
       </c>
       <c r="B7">
-        <v>1187.738235138818</v>
+        <v>5.1813426346362927E-2</v>
       </c>
       <c r="C7">
-        <v>977.58394160583941</v>
+        <v>0.65960792278767943</v>
       </c>
       <c r="D7">
-        <v>0.67476654322320895</v>
+        <v>1095.017333276342</v>
       </c>
       <c r="E7">
-        <v>3.6442226948690308E-2</v>
+        <v>974.78102189781021</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>343.5401583437976</v>
+        <v>343.65166093202839</v>
       </c>
       <c r="B8">
-        <v>966.52962524876659</v>
+        <v>3.3396825044910303E-2</v>
       </c>
       <c r="C8">
-        <v>858.19543147208117</v>
+        <v>0.67236076022097602</v>
       </c>
       <c r="D8">
-        <v>0.6392123794818112</v>
+        <v>989.14378093763742</v>
       </c>
       <c r="E8">
-        <v>4.7973183142194939E-2</v>
+        <v>875.97969543147212</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>331.13330014813499</v>
+        <v>317.37354925512642</v>
       </c>
       <c r="B9">
-        <v>937.55652435166576</v>
+        <v>4.4512436934339913E-2</v>
       </c>
       <c r="C9">
-        <v>880.93765586034908</v>
+        <v>0.65912232887672473</v>
       </c>
       <c r="D9">
-        <v>0.62226483112898612</v>
+        <v>920.07636452022155</v>
       </c>
       <c r="E9">
-        <v>4.7019743327332102E-2</v>
+        <v>867.63250000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>415.05860315282962</v>
+        <v>436.29831135691961</v>
       </c>
       <c r="B10">
-        <v>1020.384264997443</v>
+        <v>4.1146399062661633E-2</v>
       </c>
       <c r="C10">
-        <v>964.34553775743711</v>
+        <v>0.64964838831027494</v>
       </c>
       <c r="D10">
-        <v>0.66968081917517053</v>
+        <v>1034.9030263768709</v>
       </c>
       <c r="E10">
-        <v>4.2531280221757548E-2</v>
+        <v>989.73863636363637</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>301.1602688851882</v>
+        <v>295.67458601519758</v>
       </c>
       <c r="B11">
-        <v>947.80092898849887</v>
+        <v>4.4751277201689907E-2</v>
       </c>
       <c r="C11">
-        <v>739.2757793764988</v>
+        <v>0.66544278737693863</v>
       </c>
       <c r="D11">
-        <v>0.66341750358684248</v>
+        <v>971.45334198457579</v>
       </c>
       <c r="E11">
-        <v>4.7205896647896713E-2</v>
+        <v>741.82296650717706</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>336.63391625770589</v>
+        <v>400.31027572971698</v>
       </c>
       <c r="B12">
-        <v>928.37450881674272</v>
+        <v>4.4385525505171081E-2</v>
       </c>
       <c r="C12">
-        <v>766.35211267605632</v>
+        <v>0.64233389851381428</v>
       </c>
       <c r="D12">
-        <v>0.64244423153394137</v>
+        <v>1067.738742147767</v>
       </c>
       <c r="E12">
-        <v>4.6910164942282069E-2</v>
+        <v>780.271662763466</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>225.26746875191751</v>
+        <v>387.93317039797171</v>
       </c>
       <c r="B13">
-        <v>849.15255184271496</v>
+        <v>3.8965916693725303E-2</v>
       </c>
       <c r="C13">
-        <v>921.42233009708741</v>
+        <v>0.66161124777788305</v>
       </c>
       <c r="D13">
-        <v>0.67204592507399141</v>
+        <v>1061.4102998637529</v>
       </c>
       <c r="E13">
-        <v>4.3612030297256167E-2</v>
+        <v>948.09024390243906</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>382.1658557598135</v>
+        <v>468.44757340974769</v>
       </c>
       <c r="B14">
-        <v>1055.392894912173</v>
+        <v>4.5929924953504252E-2</v>
       </c>
       <c r="C14">
-        <v>1011.899509803922</v>
+        <v>0.68025068437333369</v>
       </c>
       <c r="D14">
-        <v>0.6377215889846054</v>
+        <v>1039.407637188506</v>
       </c>
       <c r="E14">
-        <v>4.3555153852499813E-2</v>
+        <v>981.7807881773399</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>390.89400640026679</v>
+        <v>338.06549871969628</v>
       </c>
       <c r="B15">
-        <v>1071.6808056178561</v>
+        <v>4.2421010607669278E-2</v>
       </c>
       <c r="C15">
-        <v>963.65920398009951</v>
+        <v>0.69234646841113368</v>
       </c>
       <c r="D15">
-        <v>0.6608007904834895</v>
+        <v>1042.5992887100419</v>
       </c>
       <c r="E15">
-        <v>4.0314151675454803E-2</v>
+        <v>934.77306733167086</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>392.65202180515217</v>
+        <v>288.37325205671482</v>
       </c>
       <c r="B16">
-        <v>1089.2790517266931</v>
+        <v>4.7282400253864459E-2</v>
       </c>
       <c r="C16">
-        <v>1008.510948905109</v>
+        <v>0.65448987293546557</v>
       </c>
       <c r="D16">
-        <v>0.6624922364937994</v>
+        <v>851.36647906702331</v>
       </c>
       <c r="E16">
-        <v>4.0619050797996048E-2</v>
+        <v>992.16421568627447</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>416.23854986360459</v>
+        <v>320.50435004802262</v>
       </c>
       <c r="B17">
-        <v>953.25424536066089</v>
+        <v>3.6048416441754237E-2</v>
       </c>
       <c r="C17">
-        <v>886.61448598130846</v>
+        <v>0.67394503840003261</v>
       </c>
       <c r="D17">
-        <v>0.68119834399396773</v>
+        <v>923.50277523285899</v>
       </c>
       <c r="E17">
-        <v>4.1587116399915511E-2</v>
+        <v>881.0815850815851</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>435.1902772329945</v>
+        <v>388.54219923602722</v>
       </c>
       <c r="B18">
-        <v>1097.6839065998131</v>
+        <v>4.275249940331239E-2</v>
       </c>
       <c r="C18">
-        <v>782.33569739952713</v>
+        <v>0.66869162752701705</v>
       </c>
       <c r="D18">
-        <v>0.65606095114529184</v>
+        <v>984.77108115189696</v>
       </c>
       <c r="E18">
-        <v>5.672098111776068E-2</v>
+        <v>792.16548463356969</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>398.02378737360152</v>
+        <v>195.95924473671019</v>
       </c>
       <c r="B19">
-        <v>1007.243891445989</v>
+        <v>4.1199302615947057E-2</v>
       </c>
       <c r="C19">
-        <v>878.51707317073169</v>
+        <v>0.67111676671493914</v>
       </c>
       <c r="D19">
-        <v>0.6496355064323811</v>
+        <v>827.45567032060967</v>
       </c>
       <c r="E19">
-        <v>4.4918743841448491E-2</v>
+        <v>876.39512195121949</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>405.63345168788419</v>
+        <v>311.98645441273737</v>
       </c>
       <c r="B20">
-        <v>1018.023185325195</v>
+        <v>3.7410167894628962E-2</v>
       </c>
       <c r="C20">
-        <v>871.58530805687201</v>
+        <v>0.66290601643676506</v>
       </c>
       <c r="D20">
-        <v>0.65806552582000188</v>
+        <v>1022.55713203018</v>
       </c>
       <c r="E20">
-        <v>4.4527844596246417E-2</v>
+        <v>917.37825059101658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>405.21958169313518</v>
+      </c>
+      <c r="B21">
+        <v>5.0107199194333138E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.64199533877559545</v>
+      </c>
+      <c r="D21">
+        <v>1020.360325952211</v>
+      </c>
+      <c r="E21">
+        <v>946.95961995249411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>382.91430174858408</v>
+      </c>
+      <c r="B22">
+        <v>3.9135101399529207E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.66038009921200869</v>
+      </c>
+      <c r="D22">
+        <v>887.34454062881684</v>
+      </c>
+      <c r="E22">
+        <v>925.64073226544622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>415.86945138863308</v>
+      </c>
+      <c r="B23">
+        <v>4.0978841050069111E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.64187057306480366</v>
+      </c>
+      <c r="D23">
+        <v>1180.229601298196</v>
+      </c>
+      <c r="E23">
+        <v>916.03614457831327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>393.42876152546501</v>
+      </c>
+      <c r="B24">
+        <v>4.4558610855723282E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.65873295947501131</v>
+      </c>
+      <c r="D24">
+        <v>1125.8816236671721</v>
+      </c>
+      <c r="E24">
+        <v>780.44139650872819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>324.11502908526109</v>
+      </c>
+      <c r="B25">
+        <v>5.0895929263309277E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.65779052301400254</v>
+      </c>
+      <c r="D25">
+        <v>1024.089739158504</v>
+      </c>
+      <c r="E25">
+        <v>829.06960556844547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>444.38784531642489</v>
+      </c>
+      <c r="B26">
+        <v>4.0894229791710597E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.64813717697677931</v>
+      </c>
+      <c r="D26">
+        <v>1072.3430165084051</v>
+      </c>
+      <c r="E26">
+        <v>919.22358722358717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>392.61081154953399</v>
+      </c>
+      <c r="B27">
+        <v>4.5703467751170533E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.70907267496208926</v>
+      </c>
+      <c r="D27">
+        <v>1043.3735514393441</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>307.29409806560841</v>
+      </c>
+      <c r="B28">
+        <v>4.3224178965440473E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.65564349670427369</v>
+      </c>
+      <c r="D28">
+        <v>994.70615894272521</v>
+      </c>
+      <c r="E28">
+        <v>817.12037037037032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>354.70966909373618</v>
+      </c>
+      <c r="B29">
+        <v>4.0797797200251507E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.63097738794160207</v>
+      </c>
+      <c r="D29">
+        <v>932.43617546381859</v>
+      </c>
+      <c r="E29">
+        <v>871.78409090909088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>369.89782532770192</v>
+      </c>
+      <c r="B30">
+        <v>3.6792632122704692E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.68212793674559247</v>
+      </c>
+      <c r="D30">
+        <v>1055.4401027470251</v>
+      </c>
+      <c r="E30">
+        <v>828.32</v>
       </c>
     </row>
   </sheetData>
